--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_deployment_plan_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_deployment_plan_report.xlsx
@@ -510,41 +510,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3">
@@ -553,7 +553,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -601,7 +601,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -649,7 +649,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -663,15 +663,15 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -711,15 +711,15 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -750,16 +750,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -777,14 +777,14 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8">
@@ -798,16 +798,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -825,14 +825,14 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9">
@@ -846,24 +846,24 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -873,14 +873,14 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="10">
@@ -903,15 +903,15 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -937,21 +937,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -969,14 +969,14 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="12">
@@ -985,21 +985,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1017,14 +1017,14 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="13">
@@ -1033,29 +1033,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1065,14 +1065,14 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="14">
@@ -1086,16 +1086,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1103,24 +1103,24 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="15">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1151,10 +1151,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45292</v>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="L15" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45293</v>
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45294</v>
@@ -1263,7 +1263,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1299,10 +1299,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>45295</v>
@@ -1313,7 +1313,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1349,10 +1349,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H19" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>45292</v>
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L19" t="n">
         <v>1498</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1385,43 +1385,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>50</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>100</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1435,11 +1433,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1453,11 +1451,11 @@
         <v>50</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1471,7 +1469,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1485,11 +1483,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1503,11 +1501,11 @@
         <v>50</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1521,7 +1519,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1535,36 +1533,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H23" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>42</v>
-      </c>
-      <c r="L23" t="n">
-        <v>985</v>
+        <v>50</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1591,28 +1591,28 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="L24" t="n">
-        <v>1000</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1631,11 +1631,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1643,21 +1643,21 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1681,11 +1681,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1693,21 +1693,21 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1731,11 +1731,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1743,21 +1743,21 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1781,11 +1781,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1793,24 +1793,24 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H28" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="L28" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="29">
@@ -1824,24 +1824,24 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1851,14 +1851,14 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="30">
@@ -1867,7 +1867,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1929,7 +1929,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1977,15 +1977,15 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2025,15 +2025,15 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2064,16 +2064,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2091,14 +2091,14 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="35">
@@ -2112,12 +2112,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -2139,14 +2139,14 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="36">
@@ -2160,24 +2160,24 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2187,14 +2187,14 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="37">
@@ -2217,15 +2217,15 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2251,21 +2251,21 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2283,14 +2283,14 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="39">
@@ -2299,21 +2299,21 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2331,14 +2331,14 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="40">
@@ -2347,29 +2347,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2379,14 +2379,14 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="41">
@@ -2400,16 +2400,16 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2427,14 +2427,14 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="42">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H42" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>45293</v>
@@ -2479,10 +2479,10 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="L42" t="n">
-        <v>1336</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="43">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2505,7 +2505,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2513,10 +2513,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H43" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>45294</v>
@@ -2527,7 +2527,7 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2563,10 +2563,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H44" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>45295</v>
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2605,7 +2605,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H45" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>45296</v>
@@ -2627,7 +2627,7 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2655,7 +2655,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2663,10 +2663,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>45292</v>
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L46" t="n">
         <v>1500</v>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2699,43 +2699,41 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H47" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>9</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1343</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2749,11 +2747,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2764,18 +2762,18 @@
         <v>50</v>
       </c>
       <c r="H48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2785,7 +2783,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2799,11 +2797,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2814,18 +2812,18 @@
         <v>50</v>
       </c>
       <c r="H49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2835,7 +2833,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2849,36 +2847,38 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>985</v>
+        <v>10</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2905,28 +2905,28 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H51" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>1336</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="52">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2945,11 +2945,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2957,21 +2957,21 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H52" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2995,11 +2995,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3007,21 +3007,21 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H53" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I53" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3045,11 +3045,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3057,21 +3057,21 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H54" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I54" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K54" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3095,11 +3095,11 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3107,24 +3107,24 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H55" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="56">
@@ -3138,41 +3138,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H56" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I56" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>1380</v>
+        <v>955</v>
       </c>
     </row>
     <row r="57">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3203,10 +3203,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H57" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I57" s="2" t="n">
         <v>45294</v>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L57" t="n">
         <v>1380</v>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3243,7 +3243,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3251,10 +3251,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H58" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I58" s="2" t="n">
         <v>45294</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L58" t="n">
         <v>1380</v>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3291,18 +3291,18 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H59" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I59" s="2" t="n">
         <v>45294</v>
@@ -3313,7 +3313,7 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="L59" t="n">
         <v>1380</v>
@@ -3339,18 +3339,18 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H60" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I60" s="2" t="n">
         <v>45294</v>
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="L60" t="n">
         <v>1380</v>
@@ -3378,16 +3378,16 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3395,24 +3395,24 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H61" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I61" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="L61" t="n">
-        <v>1380</v>
+        <v>955</v>
       </c>
     </row>
     <row r="62">
@@ -3426,16 +3426,16 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3443,24 +3443,24 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H62" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I62" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="L62" t="n">
-        <v>1380</v>
+        <v>955</v>
       </c>
     </row>
     <row r="63">
@@ -3474,41 +3474,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="H63" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="I63" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K63" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="L63" t="n">
-        <v>1380</v>
+        <v>955</v>
       </c>
     </row>
     <row r="64">
@@ -3531,15 +3531,15 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H64" t="n">
         <v>11</v>
@@ -3556,7 +3556,7 @@
         <v>11</v>
       </c>
       <c r="L64" t="n">
-        <v>934</v>
+        <v>955</v>
       </c>
     </row>
     <row r="65">
@@ -3565,21 +3565,21 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3587,24 +3587,24 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H65" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I65" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K65" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L65" t="n">
-        <v>934</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="66">
@@ -3613,21 +3613,21 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3635,24 +3635,24 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H66" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I66" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K66" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L66" t="n">
-        <v>934</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="67">
@@ -3661,46 +3661,46 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="H67" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I67" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="L67" t="n">
-        <v>934</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="68">
@@ -3714,16 +3714,16 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3731,24 +3731,24 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I68" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L68" t="n">
-        <v>934</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="69">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3779,10 +3779,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="2" t="n">
         <v>45294</v>
@@ -3793,10 +3793,10 @@
         </is>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="70">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3819,7 +3819,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3869,7 +3869,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3919,7 +3919,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3969,7 +3969,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4013,43 +4013,41 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K74" t="n">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L74" t="n">
+        <v>1589</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4063,11 +4061,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -4081,11 +4079,11 @@
         <v>0</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K75" t="n">
@@ -4099,7 +4097,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4113,11 +4111,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -4131,11 +4129,11 @@
         <v>0</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K76" t="n">
@@ -4149,7 +4147,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4163,15 +4161,15 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -4181,18 +4179,20 @@
         <v>0</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>45292</v>
+        <v>45297</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
-      <c r="L77" t="n">
-        <v>934</v>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4211,36 +4211,36 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K78" t="n">
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>1590</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="79">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4259,11 +4259,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K79" t="n">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4309,11 +4309,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K80" t="n">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4359,11 +4359,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K81" t="n">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4409,11 +4409,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -4431,14 +4431,14 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K82" t="n">
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>1380</v>
+        <v>955</v>
       </c>
     </row>
     <row r="83">
@@ -4452,41 +4452,41 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H83" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I83" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K83" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>1263</v>
+        <v>875</v>
       </c>
     </row>
     <row r="84">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4509,7 +4509,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -4517,10 +4517,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H84" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I84" s="2" t="n">
         <v>45295</v>
@@ -4531,10 +4531,10 @@
         </is>
       </c>
       <c r="K84" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="L84" t="n">
-        <v>1263</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="85">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4557,7 +4557,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -4565,10 +4565,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H85" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="I85" s="2" t="n">
         <v>45295</v>
@@ -4579,10 +4579,10 @@
         </is>
       </c>
       <c r="K85" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="L85" t="n">
-        <v>1263</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="86">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4605,18 +4605,18 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H86" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="I86" s="2" t="n">
         <v>45295</v>
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="K86" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="L86" t="n">
-        <v>1263</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="87">
@@ -4653,18 +4653,18 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I87" s="2" t="n">
         <v>45295</v>
@@ -4675,10 +4675,10 @@
         </is>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L87" t="n">
-        <v>1263</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="88">
@@ -4692,16 +4692,16 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4709,24 +4709,24 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I88" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L88" t="n">
-        <v>1263</v>
+        <v>875</v>
       </c>
     </row>
     <row r="89">
@@ -4740,16 +4740,16 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4757,24 +4757,24 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I89" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L89" t="n">
-        <v>1263</v>
+        <v>875</v>
       </c>
     </row>
     <row r="90">
@@ -4788,41 +4788,41 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I90" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L90" t="n">
-        <v>1263</v>
+        <v>875</v>
       </c>
     </row>
     <row r="91">
@@ -4845,18 +4845,18 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H91" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I91" s="2" t="n">
         <v>45295</v>
@@ -4867,10 +4867,10 @@
         </is>
       </c>
       <c r="K91" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L91" t="n">
-        <v>864</v>
+        <v>875</v>
       </c>
     </row>
     <row r="92">
@@ -4879,21 +4879,21 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4901,24 +4901,24 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H92" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I92" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K92" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="L92" t="n">
-        <v>864</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="93">
@@ -4927,21 +4927,21 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4949,24 +4949,24 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H93" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I93" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K93" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L93" t="n">
-        <v>864</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="94">
@@ -4975,46 +4975,46 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="H94" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I94" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K94" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L94" t="n">
-        <v>864</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="95">
@@ -5028,16 +5028,16 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -5045,24 +5045,24 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I95" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="L95" t="n">
-        <v>864</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="96">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -5093,10 +5093,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" s="2" t="n">
         <v>45295</v>
@@ -5107,10 +5107,10 @@
         </is>
       </c>
       <c r="K96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>1631</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="97">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5133,7 +5133,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5183,7 +5183,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -5219,7 +5219,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -5269,7 +5269,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5283,7 +5283,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -5308,12 +5308,12 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>1263</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -5327,43 +5327,41 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1622</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -5377,11 +5375,11 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -5395,11 +5393,11 @@
         <v>0</v>
       </c>
       <c r="I102" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K102" t="n">
@@ -5413,7 +5411,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -5427,11 +5425,11 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -5445,11 +5443,11 @@
         <v>0</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K103" t="n">
@@ -5463,7 +5461,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -5477,15 +5475,15 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -5495,18 +5493,20 @@
         <v>0</v>
       </c>
       <c r="I104" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K104" t="n">
         <v>0</v>
       </c>
-      <c r="L104" t="n">
-        <v>864</v>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="105">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5525,36 +5525,36 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K105" t="n">
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>1631</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="106">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5573,11 +5573,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K106" t="n">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K107" t="n">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5673,11 +5673,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K108" t="n">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5723,11 +5723,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -5745,14 +5745,14 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K109" t="n">
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>1263</v>
+        <v>875</v>
       </c>
     </row>
     <row r="110">
@@ -5766,41 +5766,41 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H110" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I110" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K110" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>1198</v>
+        <v>901</v>
       </c>
     </row>
     <row r="111">
@@ -5809,7 +5809,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5823,7 +5823,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5831,10 +5831,10 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="H111" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I111" s="2" t="n">
         <v>45296</v>
@@ -5845,10 +5845,10 @@
         </is>
       </c>
       <c r="K111" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>1198</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="112">
@@ -5857,7 +5857,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5879,10 +5879,10 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H112" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I112" s="2" t="n">
         <v>45296</v>
@@ -5893,10 +5893,10 @@
         </is>
       </c>
       <c r="K112" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>1198</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="113">
@@ -5905,7 +5905,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5919,18 +5919,18 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H113" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I113" s="2" t="n">
         <v>45296</v>
@@ -5941,10 +5941,10 @@
         </is>
       </c>
       <c r="K113" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>1198</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="114">
@@ -5967,18 +5967,18 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" s="2" t="n">
         <v>45296</v>
@@ -5989,10 +5989,10 @@
         </is>
       </c>
       <c r="K114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>1198</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="115">
@@ -6006,16 +6006,16 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -6023,24 +6023,24 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
-        <v>1198</v>
+        <v>901</v>
       </c>
     </row>
     <row r="116">
@@ -6054,16 +6054,16 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -6071,24 +6071,24 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
-        <v>1198</v>
+        <v>901</v>
       </c>
     </row>
     <row r="117">
@@ -6102,41 +6102,41 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>1198</v>
+        <v>901</v>
       </c>
     </row>
     <row r="118">
@@ -6159,15 +6159,15 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -6184,7 +6184,7 @@
         <v>0</v>
       </c>
       <c r="L118" t="n">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="119">
@@ -6193,21 +6193,21 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -6215,24 +6215,24 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I119" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L119" t="n">
-        <v>896</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="120">
@@ -6241,21 +6241,21 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -6263,24 +6263,24 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L120" t="n">
-        <v>896</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="121">
@@ -6289,46 +6289,46 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I121" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L121" t="n">
-        <v>896</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="122">
@@ -6342,16 +6342,16 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -6359,24 +6359,24 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I122" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L122" t="n">
-        <v>896</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="123">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6399,7 +6399,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -6407,10 +6407,10 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H123" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I123" s="2" t="n">
         <v>45296</v>
@@ -6421,10 +6421,10 @@
         </is>
       </c>
       <c r="K123" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>1631</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="124">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -6455,10 +6455,10 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H124" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I124" s="2" t="n">
         <v>45297</v>
@@ -6469,7 +6469,7 @@
         </is>
       </c>
       <c r="K124" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6497,7 +6497,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -6505,10 +6505,10 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H125" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I125" s="2" t="n">
         <v>45298</v>
@@ -6519,7 +6519,7 @@
         </is>
       </c>
       <c r="K125" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -6533,7 +6533,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6547,7 +6547,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -6555,10 +6555,10 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H126" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I126" s="2" t="n">
         <v>45299</v>
@@ -6569,7 +6569,7 @@
         </is>
       </c>
       <c r="K126" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -6622,12 +6622,12 @@
         <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>1198</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -6641,43 +6641,41 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H128" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I128" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K128" t="n">
-        <v>12</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1622</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -6691,11 +6689,11 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -6706,18 +6704,18 @@
         <v>50</v>
       </c>
       <c r="H129" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I129" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K129" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -6727,7 +6725,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -6741,11 +6739,11 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -6756,18 +6754,18 @@
         <v>50</v>
       </c>
       <c r="H130" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I130" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K130" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -6777,7 +6775,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45296</v>
+        <v>45299</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -6791,36 +6789,38 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I131" s="2" t="n">
-        <v>45292</v>
+        <v>45299</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" t="n">
-        <v>896</v>
+        <v>10</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -6847,28 +6847,28 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" s="2" t="n">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K132" t="n">
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>1631</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="133">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6887,11 +6887,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -6899,21 +6899,21 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I133" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6937,11 +6937,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6949,21 +6949,21 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I134" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6987,11 +6987,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -6999,21 +6999,21 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I135" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -7037,11 +7037,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -7059,14 +7059,14 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K136" t="n">
         <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>1198</v>
+        <v>901</v>
       </c>
     </row>
     <row r="137">
@@ -7080,24 +7080,24 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -7107,14 +7107,14 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K137" t="n">
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>1283</v>
+        <v>943</v>
       </c>
     </row>
     <row r="138">
@@ -7123,7 +7123,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -7137,7 +7137,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>1283</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="139">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7185,7 +7185,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -7210,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>1283</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="140">
@@ -7219,7 +7219,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7233,15 +7233,15 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="L140" t="n">
-        <v>1283</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="141">
@@ -7281,15 +7281,15 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="n">
-        <v>1283</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="142">
@@ -7320,16 +7320,16 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -7347,14 +7347,14 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K142" t="n">
         <v>0</v>
       </c>
       <c r="L142" t="n">
-        <v>1283</v>
+        <v>943</v>
       </c>
     </row>
     <row r="143">
@@ -7368,16 +7368,16 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -7395,14 +7395,14 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K143" t="n">
         <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>1283</v>
+        <v>943</v>
       </c>
     </row>
     <row r="144">
@@ -7416,24 +7416,24 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -7443,14 +7443,14 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K144" t="n">
         <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>1283</v>
+        <v>943</v>
       </c>
     </row>
     <row r="145">
@@ -7473,15 +7473,15 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -7498,7 +7498,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>933</v>
+        <v>943</v>
       </c>
     </row>
     <row r="146">
@@ -7507,21 +7507,21 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -7539,14 +7539,14 @@
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K146" t="n">
         <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>933</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="147">
@@ -7555,21 +7555,21 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E147" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -7587,14 +7587,14 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K147" t="n">
         <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>933</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="148">
@@ -7603,29 +7603,29 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -7635,14 +7635,14 @@
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K148" t="n">
         <v>0</v>
       </c>
       <c r="L148" t="n">
-        <v>933</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="149">
@@ -7656,16 +7656,16 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -7683,14 +7683,14 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K149" t="n">
         <v>0</v>
       </c>
       <c r="L149" t="n">
-        <v>933</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="150">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7713,7 +7713,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -7721,10 +7721,10 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H150" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I150" s="2" t="n">
         <v>45297</v>
@@ -7735,10 +7735,10 @@
         </is>
       </c>
       <c r="K150" t="n">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="L150" t="n">
-        <v>1692</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="151">
@@ -7747,7 +7747,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7761,7 +7761,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -7769,10 +7769,10 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H151" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I151" s="2" t="n">
         <v>45298</v>
@@ -7783,7 +7783,7 @@
         </is>
       </c>
       <c r="K151" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7811,7 +7811,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -7819,10 +7819,10 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H152" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I152" s="2" t="n">
         <v>45299</v>
@@ -7833,7 +7833,7 @@
         </is>
       </c>
       <c r="K152" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7861,7 +7861,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -7869,10 +7869,10 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H153" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I153" s="2" t="n">
         <v>45300</v>
@@ -7883,7 +7883,7 @@
         </is>
       </c>
       <c r="K153" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7911,7 +7911,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -7936,12 +7936,12 @@
         <v>0</v>
       </c>
       <c r="L154" t="n">
-        <v>1283</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -7955,43 +7955,41 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H155" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="I155" s="2" t="n">
-        <v>45298</v>
+        <v>45297</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K155" t="n">
-        <v>26</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>55</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1696</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -8005,11 +8003,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -8020,18 +8018,18 @@
         <v>50</v>
       </c>
       <c r="H156" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I156" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K156" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -8041,7 +8039,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -8055,11 +8053,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -8070,18 +8068,18 @@
         <v>50</v>
       </c>
       <c r="H157" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I157" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K157" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -8091,7 +8089,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45297</v>
+        <v>45300</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -8105,36 +8103,38 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I158" s="2" t="n">
-        <v>45292</v>
+        <v>45300</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K158" t="n">
-        <v>0</v>
-      </c>
-      <c r="L158" t="n">
-        <v>933</v>
+        <v>27</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="159">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -8153,7 +8153,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -8161,28 +8161,28 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H159" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I159" s="2" t="n">
-        <v>45297</v>
+        <v>45292</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K159" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
-        <v>1692</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="160">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8201,11 +8201,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -8213,21 +8213,21 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H160" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I160" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K160" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8251,11 +8251,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -8263,21 +8263,21 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H161" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I161" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K161" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8301,11 +8301,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -8313,21 +8313,21 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I162" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K162" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8351,11 +8351,11 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E163" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -8373,14 +8373,14 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K163" t="n">
         <v>0</v>
       </c>
       <c r="L163" t="n">
-        <v>1283</v>
+        <v>943</v>
       </c>
     </row>
     <row r="164">
@@ -8394,24 +8394,24 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -8421,14 +8421,14 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K164" t="n">
         <v>0</v>
       </c>
       <c r="L164" t="n">
-        <v>1316</v>
+        <v>962</v>
       </c>
     </row>
     <row r="165">
@@ -8437,7 +8437,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8451,7 +8451,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="L165" t="n">
-        <v>1316</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="166">
@@ -8485,7 +8485,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -8499,7 +8499,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
       <c r="L166" t="n">
-        <v>1316</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="167">
@@ -8533,7 +8533,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -8547,15 +8547,15 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -8572,7 +8572,7 @@
         <v>0</v>
       </c>
       <c r="L167" t="n">
-        <v>1316</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="168">
@@ -8595,15 +8595,15 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -8620,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="n">
-        <v>1316</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="169">
@@ -8634,16 +8634,16 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -8661,14 +8661,14 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K169" t="n">
         <v>0</v>
       </c>
       <c r="L169" t="n">
-        <v>1316</v>
+        <v>962</v>
       </c>
     </row>
     <row r="170">
@@ -8682,16 +8682,16 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -8709,14 +8709,14 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K170" t="n">
         <v>0</v>
       </c>
       <c r="L170" t="n">
-        <v>1316</v>
+        <v>962</v>
       </c>
     </row>
     <row r="171">
@@ -8730,24 +8730,24 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -8757,14 +8757,14 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K171" t="n">
         <v>0</v>
       </c>
       <c r="L171" t="n">
-        <v>1316</v>
+        <v>962</v>
       </c>
     </row>
     <row r="172">
@@ -8787,15 +8787,15 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -8812,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="n">
-        <v>941</v>
+        <v>962</v>
       </c>
     </row>
     <row r="173">
@@ -8821,21 +8821,21 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -8853,14 +8853,14 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K173" t="n">
         <v>0</v>
       </c>
       <c r="L173" t="n">
-        <v>941</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="174">
@@ -8869,21 +8869,21 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -8901,14 +8901,14 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K174" t="n">
         <v>0</v>
       </c>
       <c r="L174" t="n">
-        <v>941</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="175">
@@ -8917,29 +8917,29 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -8949,14 +8949,14 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K175" t="n">
         <v>0</v>
       </c>
       <c r="L175" t="n">
-        <v>941</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="176">
@@ -8970,16 +8970,16 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -8997,14 +8997,14 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K176" t="n">
         <v>0</v>
       </c>
       <c r="L176" t="n">
-        <v>941</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="177">
@@ -9013,7 +9013,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -9027,7 +9027,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -9035,10 +9035,10 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H177" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="I177" s="2" t="n">
         <v>45298</v>
@@ -9049,10 +9049,10 @@
         </is>
       </c>
       <c r="K177" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L177" t="n">
-        <v>1591</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="178">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -9075,7 +9075,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -9083,10 +9083,10 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H178" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I178" s="2" t="n">
         <v>45299</v>
@@ -9097,7 +9097,7 @@
         </is>
       </c>
       <c r="K178" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -9125,7 +9125,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -9133,10 +9133,10 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H179" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I179" s="2" t="n">
         <v>45300</v>
@@ -9147,7 +9147,7 @@
         </is>
       </c>
       <c r="K179" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -9175,7 +9175,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -9183,10 +9183,10 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H180" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I180" s="2" t="n">
         <v>45301</v>
@@ -9197,7 +9197,7 @@
         </is>
       </c>
       <c r="K180" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9225,7 +9225,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -9250,12 +9250,12 @@
         <v>0</v>
       </c>
       <c r="L181" t="n">
-        <v>1316</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -9269,43 +9269,41 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H182" t="n">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="I182" s="2" t="n">
-        <v>45299</v>
+        <v>45298</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K182" t="n">
-        <v>27</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>63</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1589</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -9319,11 +9317,11 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -9334,18 +9332,18 @@
         <v>50</v>
       </c>
       <c r="H183" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I183" s="2" t="n">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K183" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -9355,7 +9353,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -9369,11 +9367,11 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E184" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -9384,18 +9382,18 @@
         <v>50</v>
       </c>
       <c r="H184" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I184" s="2" t="n">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K184" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -9405,7 +9403,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -9419,36 +9417,38 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E185" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I185" s="2" t="n">
-        <v>45292</v>
+        <v>45301</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K185" t="n">
-        <v>0</v>
-      </c>
-      <c r="L185" t="n">
-        <v>941</v>
+        <v>31</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="186">
@@ -9457,7 +9457,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9467,7 +9467,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -9475,28 +9475,28 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H186" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="I186" s="2" t="n">
-        <v>45298</v>
+        <v>45292</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K186" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="L186" t="n">
-        <v>1591</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="187">
@@ -9505,7 +9505,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9515,11 +9515,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -9527,21 +9527,21 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H187" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I187" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K187" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9565,11 +9565,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -9577,21 +9577,21 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H188" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I188" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K188" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9615,11 +9615,11 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -9627,21 +9627,21 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H189" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I189" s="2" t="n">
         <v>45301</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K189" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9665,11 +9665,11 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -9677,7 +9677,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -9687,14 +9687,14 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K190" t="n">
         <v>0</v>
       </c>
       <c r="L190" t="n">
-        <v>1316</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_deployment_plan_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_deployment_plan_report.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -519,18 +519,18 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
         <v>45292</v>
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>985</v>
@@ -558,16 +558,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -585,14 +585,14 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4">
@@ -606,16 +606,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -633,14 +633,14 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="5">
@@ -654,24 +654,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -681,14 +681,14 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="6">
@@ -697,7 +697,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -711,15 +711,15 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -745,21 +745,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -777,14 +777,14 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="8">
@@ -793,21 +793,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -825,14 +825,14 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="9">
@@ -841,29 +841,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -873,14 +873,14 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="10">
@@ -894,24 +894,24 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -921,14 +921,14 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="11">
@@ -937,7 +937,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -985,7 +985,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -999,7 +999,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1047,15 +1047,15 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1086,16 +1086,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1103,24 +1103,24 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I14" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="15">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1143,7 +1143,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1151,10 +1151,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45292</v>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="L15" t="n">
         <v>1000</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1187,11 +1187,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1199,21 +1199,21 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1237,11 +1237,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1249,21 +1249,21 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1287,11 +1287,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1299,21 +1299,21 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1337,11 +1337,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1349,29 +1349,29 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H19" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="L19" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1385,41 +1385,43 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>100</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1000</v>
+        <v>50</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1451,7 +1453,7 @@
         <v>50</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1469,7 +1471,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1487,7 +1489,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1501,7 +1503,7 @@
         <v>50</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1519,7 +1521,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1537,21 +1539,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H23" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1559,12 +1561,10 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>50</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>57</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1498</v>
       </c>
     </row>
     <row r="24">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1591,28 +1591,28 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H24" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="L24" t="n">
-        <v>1498</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1631,11 +1631,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1643,21 +1643,21 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1681,11 +1681,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1693,21 +1693,21 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1731,11 +1731,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1743,21 +1743,21 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1781,36 +1781,36 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E28" t="n">
+        <v>50</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
         <v>60</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>75</v>
-      </c>
       <c r="H28" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="L28" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="29">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1833,15 +1833,15 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1872,16 +1872,16 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1889,7 +1889,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1899,14 +1899,14 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="31">
@@ -1920,16 +1920,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1947,14 +1947,14 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="32">
@@ -1968,24 +1968,24 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1995,14 +1995,14 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="33">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2025,15 +2025,15 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2059,21 +2059,21 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2091,14 +2091,14 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="35">
@@ -2107,21 +2107,21 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2139,14 +2139,14 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="36">
@@ -2155,29 +2155,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2187,14 +2187,14 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="37">
@@ -2208,24 +2208,24 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2235,14 +2235,14 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="38">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2313,7 +2313,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2361,15 +2361,15 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2400,16 +2400,16 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2427,14 +2427,14 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="42">
@@ -2443,7 +2443,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2457,7 +2457,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2465,10 +2465,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H42" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>45293</v>
@@ -2479,10 +2479,10 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1343</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="43">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2501,11 +2501,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2513,21 +2513,21 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H43" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2551,11 +2551,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2563,21 +2563,21 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H44" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2601,11 +2601,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2613,21 +2613,21 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H45" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2651,11 +2651,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2663,29 +2663,29 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H46" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2699,41 +2699,43 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H47" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>21</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1343</v>
+        <v>0</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2762,10 +2764,10 @@
         <v>50</v>
       </c>
       <c r="H48" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2773,7 +2775,7 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2783,7 +2785,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2801,7 +2803,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2812,10 +2814,10 @@
         <v>50</v>
       </c>
       <c r="H49" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2823,7 +2825,7 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2833,7 +2835,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2851,21 +2853,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H50" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -2873,12 +2875,10 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>10</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="51">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2897,7 +2897,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2905,28 +2905,28 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L51" t="n">
-        <v>1500</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="52">
@@ -2935,7 +2935,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2945,11 +2945,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2957,21 +2957,21 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H52" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2995,11 +2995,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3007,21 +3007,21 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H53" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I53" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3045,11 +3045,11 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3057,21 +3057,21 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H54" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I54" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K54" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3095,36 +3095,36 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E55" t="n">
+        <v>50</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
         <v>60</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>75</v>
-      </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I55" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L55" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="56">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3147,18 +3147,18 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I56" s="2" t="n">
         <v>45294</v>
@@ -3169,10 +3169,10 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L56" t="n">
-        <v>955</v>
+        <v>933</v>
       </c>
     </row>
     <row r="57">
@@ -3186,16 +3186,16 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3203,24 +3203,24 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I57" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L57" t="n">
-        <v>1380</v>
+        <v>933</v>
       </c>
     </row>
     <row r="58">
@@ -3234,16 +3234,16 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3251,24 +3251,24 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H58" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I58" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L58" t="n">
-        <v>1380</v>
+        <v>933</v>
       </c>
     </row>
     <row r="59">
@@ -3282,41 +3282,41 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H59" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I59" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="L59" t="n">
-        <v>1380</v>
+        <v>933</v>
       </c>
     </row>
     <row r="60">
@@ -3325,7 +3325,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3339,18 +3339,18 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H60" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I60" s="2" t="n">
         <v>45294</v>
@@ -3361,10 +3361,10 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="L60" t="n">
-        <v>1380</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="61">
@@ -3373,21 +3373,21 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3395,24 +3395,24 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H61" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I61" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L61" t="n">
-        <v>955</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="62">
@@ -3421,21 +3421,21 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3443,24 +3443,24 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H62" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I62" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L62" t="n">
-        <v>955</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="63">
@@ -3469,46 +3469,46 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H63" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I63" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K63" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L63" t="n">
-        <v>955</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="64">
@@ -3522,41 +3522,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H64" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I64" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="L64" t="n">
-        <v>955</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="65">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3587,10 +3587,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H65" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I65" s="2" t="n">
         <v>45294</v>
@@ -3601,10 +3601,10 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L65" t="n">
-        <v>1380</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="66">
@@ -3613,7 +3613,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3627,7 +3627,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3635,10 +3635,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H66" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I66" s="2" t="n">
         <v>45294</v>
@@ -3649,10 +3649,10 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L66" t="n">
-        <v>1380</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="67">
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3675,18 +3675,18 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="H67" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I67" s="2" t="n">
         <v>45294</v>
@@ -3697,10 +3697,10 @@
         </is>
       </c>
       <c r="K67" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="L67" t="n">
-        <v>1380</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="68">
@@ -3714,16 +3714,16 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3731,24 +3731,24 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H68" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I68" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>1380</v>
+        <v>933</v>
       </c>
     </row>
     <row r="69">
@@ -3757,7 +3757,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>1589</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="70">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3815,11 +3815,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K70" t="n">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3865,11 +3865,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K71" t="n">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3915,11 +3915,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K72" t="n">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3965,11 +3965,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3987,19 +3987,19 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K73" t="n">
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>1380</v>
+        <v>933</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -4013,41 +4013,43 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K74" t="n">
         <v>0</v>
       </c>
-      <c r="L74" t="n">
-        <v>1589</v>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -4065,7 +4067,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -4079,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
@@ -4097,7 +4099,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -4115,7 +4117,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -4129,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -4147,7 +4149,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -4165,21 +4167,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>45297</v>
+        <v>45292</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -4189,10 +4191,8 @@
       <c r="K77" t="n">
         <v>0</v>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L77" t="n">
+        <v>1388</v>
       </c>
     </row>
     <row r="78">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4211,36 +4211,36 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" s="2" t="n">
-        <v>45292</v>
+        <v>45294</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K78" t="n">
         <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>1380</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="79">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4259,11 +4259,11 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K79" t="n">
@@ -4299,7 +4299,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4309,11 +4309,11 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K80" t="n">
@@ -4349,7 +4349,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4359,11 +4359,11 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K81" t="n">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4409,11 +4409,11 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -4431,14 +4431,14 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K82" t="n">
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>955</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="83">
@@ -4447,7 +4447,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4461,18 +4461,18 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" s="2" t="n">
         <v>45295</v>
@@ -4483,10 +4483,10 @@
         </is>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L83" t="n">
-        <v>875</v>
+        <v>926</v>
       </c>
     </row>
     <row r="84">
@@ -4500,16 +4500,16 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -4517,24 +4517,24 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H84" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I84" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K84" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>1254</v>
+        <v>926</v>
       </c>
     </row>
     <row r="85">
@@ -4548,16 +4548,16 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -4565,24 +4565,24 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H85" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I85" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K85" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L85" t="n">
-        <v>1254</v>
+        <v>926</v>
       </c>
     </row>
     <row r="86">
@@ -4596,41 +4596,41 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="H86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I86" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L86" t="n">
-        <v>1254</v>
+        <v>926</v>
       </c>
     </row>
     <row r="87">
@@ -4639,7 +4639,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4653,18 +4653,18 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="H87" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="I87" s="2" t="n">
         <v>45295</v>
@@ -4675,10 +4675,10 @@
         </is>
       </c>
       <c r="K87" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L87" t="n">
-        <v>1254</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="88">
@@ -4687,21 +4687,21 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4709,24 +4709,24 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H88" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I88" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K88" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L88" t="n">
-        <v>875</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="89">
@@ -4735,21 +4735,21 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4757,24 +4757,24 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H89" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I89" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K89" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L89" t="n">
-        <v>875</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="90">
@@ -4783,46 +4783,46 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H90" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="I90" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K90" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="L90" t="n">
-        <v>875</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="91">
@@ -4836,41 +4836,41 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H91" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I91" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K91" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="L91" t="n">
-        <v>875</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="92">
@@ -4879,7 +4879,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4893,7 +4893,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4901,10 +4901,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H92" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="I92" s="2" t="n">
         <v>45295</v>
@@ -4915,10 +4915,10 @@
         </is>
       </c>
       <c r="K92" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="L92" t="n">
-        <v>1254</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="93">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4949,10 +4949,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H93" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I93" s="2" t="n">
         <v>45295</v>
@@ -4963,10 +4963,10 @@
         </is>
       </c>
       <c r="K93" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="L93" t="n">
-        <v>1254</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="94">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4989,18 +4989,18 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="H94" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I94" s="2" t="n">
         <v>45295</v>
@@ -5011,10 +5011,10 @@
         </is>
       </c>
       <c r="K94" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="L94" t="n">
-        <v>1254</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="95">
@@ -5028,16 +5028,16 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -5045,24 +5045,24 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H95" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="I95" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K95" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>1254</v>
+        <v>926</v>
       </c>
     </row>
     <row r="96">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>1622</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="97">
@@ -5119,7 +5119,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5129,11 +5129,11 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -5141,7 +5141,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -5151,7 +5151,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K97" t="n">
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5179,11 +5179,11 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -5201,7 +5201,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K98" t="n">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5229,11 +5229,11 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -5251,7 +5251,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K99" t="n">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5279,11 +5279,11 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -5301,19 +5301,19 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K100" t="n">
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>1254</v>
+        <v>926</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -5327,41 +5327,43 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K101" t="n">
-        <v>1</v>
-      </c>
-      <c r="L101" t="n">
-        <v>1622</v>
+        <v>0</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -5379,7 +5381,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -5393,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
@@ -5411,7 +5413,7 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -5429,7 +5431,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -5443,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
@@ -5461,7 +5463,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -5479,21 +5481,21 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" s="2" t="n">
-        <v>45298</v>
+        <v>45292</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
@@ -5503,10 +5505,8 @@
       <c r="K104" t="n">
         <v>0</v>
       </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L104" t="n">
+        <v>1279</v>
       </c>
     </row>
     <row r="105">
@@ -5515,7 +5515,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5525,36 +5525,36 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K105" t="n">
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>1254</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="106">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5573,11 +5573,11 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -5585,7 +5585,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -5595,7 +5595,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K106" t="n">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5623,11 +5623,11 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -5645,7 +5645,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K107" t="n">
@@ -5663,7 +5663,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5673,11 +5673,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -5695,7 +5695,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K108" t="n">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5723,11 +5723,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -5735,7 +5735,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -5745,14 +5745,14 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K109" t="n">
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>875</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="110">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5775,15 +5775,15 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -5800,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>901</v>
+        <v>961</v>
       </c>
     </row>
     <row r="111">
@@ -5814,16 +5814,16 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5831,7 +5831,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -5841,14 +5841,14 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K111" t="n">
         <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>1240</v>
+        <v>961</v>
       </c>
     </row>
     <row r="112">
@@ -5862,16 +5862,16 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -5889,14 +5889,14 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K112" t="n">
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>1240</v>
+        <v>961</v>
       </c>
     </row>
     <row r="113">
@@ -5910,24 +5910,24 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5937,14 +5937,14 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K113" t="n">
         <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>1240</v>
+        <v>961</v>
       </c>
     </row>
     <row r="114">
@@ -5953,7 +5953,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5967,18 +5967,18 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I114" s="2" t="n">
         <v>45296</v>
@@ -5989,10 +5989,10 @@
         </is>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L114" t="n">
-        <v>1240</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="115">
@@ -6001,21 +6001,21 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -6023,24 +6023,24 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I115" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L115" t="n">
-        <v>901</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="116">
@@ -6049,21 +6049,21 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -6071,24 +6071,24 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I116" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L116" t="n">
-        <v>901</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="117">
@@ -6097,46 +6097,46 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I117" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="L117" t="n">
-        <v>901</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="118">
@@ -6150,24 +6150,24 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -6177,14 +6177,14 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K118" t="n">
         <v>0</v>
       </c>
       <c r="L118" t="n">
-        <v>901</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="119">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -6215,10 +6215,10 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" s="2" t="n">
         <v>45296</v>
@@ -6229,10 +6229,10 @@
         </is>
       </c>
       <c r="K119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>1240</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="120">
@@ -6241,7 +6241,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6255,7 +6255,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -6263,10 +6263,10 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" s="2" t="n">
         <v>45296</v>
@@ -6277,10 +6277,10 @@
         </is>
       </c>
       <c r="K120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
-        <v>1240</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="121">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6303,18 +6303,18 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H121" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I121" s="2" t="n">
         <v>45296</v>
@@ -6325,10 +6325,10 @@
         </is>
       </c>
       <c r="K121" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>1240</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="122">
@@ -6342,16 +6342,16 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -6359,24 +6359,24 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H122" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I122" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K122" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>1240</v>
+        <v>961</v>
       </c>
     </row>
     <row r="123">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6399,7 +6399,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>1622</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="124">
@@ -6433,7 +6433,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6443,11 +6443,11 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -6465,7 +6465,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K124" t="n">
@@ -6483,7 +6483,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6493,11 +6493,11 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -6505,7 +6505,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -6515,7 +6515,7 @@
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K125" t="n">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6543,11 +6543,11 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -6565,7 +6565,7 @@
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K126" t="n">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6593,11 +6593,11 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -6605,7 +6605,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -6615,19 +6615,19 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K127" t="n">
         <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>1240</v>
+        <v>961</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -6641,41 +6641,43 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H128" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I128" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K128" t="n">
-        <v>20</v>
-      </c>
-      <c r="L128" t="n">
-        <v>1622</v>
+        <v>0</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -6693,7 +6695,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -6704,10 +6706,10 @@
         <v>50</v>
       </c>
       <c r="H129" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I129" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
@@ -6715,7 +6717,7 @@
         </is>
       </c>
       <c r="K129" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -6725,7 +6727,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -6754,10 +6756,10 @@
         <v>50</v>
       </c>
       <c r="H130" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I130" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
@@ -6765,7 +6767,7 @@
         </is>
       </c>
       <c r="K130" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -6775,7 +6777,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45299</v>
+        <v>45296</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -6793,21 +6795,21 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H131" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I131" s="2" t="n">
-        <v>45299</v>
+        <v>45292</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
@@ -6815,12 +6817,10 @@
         </is>
       </c>
       <c r="K131" t="n">
-        <v>10</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>1274</v>
       </c>
     </row>
     <row r="132">
@@ -6829,7 +6829,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6839,7 +6839,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -6847,28 +6847,28 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K132" t="n">
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>1240</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="133">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6887,11 +6887,11 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -6899,21 +6899,21 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H133" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I133" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K133" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6937,11 +6937,11 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6949,21 +6949,21 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H134" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I134" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K134" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6987,11 +6987,11 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -6999,21 +6999,21 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H135" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I135" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K135" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -7037,11 +7037,11 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -7049,7 +7049,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -7059,14 +7059,14 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K136" t="n">
         <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>901</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="137">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -7089,15 +7089,15 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -7114,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>943</v>
+        <v>985</v>
       </c>
     </row>
     <row r="138">
@@ -7128,16 +7128,16 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -7155,14 +7155,14 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K138" t="n">
         <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>1337</v>
+        <v>985</v>
       </c>
     </row>
     <row r="139">
@@ -7176,16 +7176,16 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -7193,7 +7193,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -7203,14 +7203,14 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K139" t="n">
         <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>1337</v>
+        <v>985</v>
       </c>
     </row>
     <row r="140">
@@ -7224,24 +7224,24 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -7251,14 +7251,14 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K140" t="n">
         <v>0</v>
       </c>
       <c r="L140" t="n">
-        <v>1337</v>
+        <v>985</v>
       </c>
     </row>
     <row r="141">
@@ -7267,7 +7267,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7281,15 +7281,15 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="L141" t="n">
-        <v>1337</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="142">
@@ -7315,21 +7315,21 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -7347,14 +7347,14 @@
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K142" t="n">
         <v>0</v>
       </c>
       <c r="L142" t="n">
-        <v>943</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="143">
@@ -7363,21 +7363,21 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -7395,14 +7395,14 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K143" t="n">
         <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>943</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="144">
@@ -7411,29 +7411,29 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -7443,14 +7443,14 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K144" t="n">
         <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>943</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="145">
@@ -7464,24 +7464,24 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -7491,14 +7491,14 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K145" t="n">
         <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>943</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="146">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -7529,7 +7529,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>1337</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="147">
@@ -7555,7 +7555,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7569,7 +7569,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -7577,7 +7577,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -7594,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>1337</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="148">
@@ -7603,7 +7603,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7617,15 +7617,15 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -7642,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="L148" t="n">
-        <v>1337</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="149">
@@ -7656,16 +7656,16 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -7683,14 +7683,14 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K149" t="n">
         <v>0</v>
       </c>
       <c r="L149" t="n">
-        <v>1337</v>
+        <v>985</v>
       </c>
     </row>
     <row r="150">
@@ -7699,7 +7699,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7713,7 +7713,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -7721,10 +7721,10 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H150" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I150" s="2" t="n">
         <v>45297</v>
@@ -7735,10 +7735,10 @@
         </is>
       </c>
       <c r="K150" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L150" t="n">
-        <v>1696</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="151">
@@ -7747,7 +7747,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7757,11 +7757,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -7769,21 +7769,21 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H151" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I151" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K151" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7807,11 +7807,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -7819,21 +7819,21 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H152" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I152" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K152" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7857,11 +7857,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -7869,21 +7869,21 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H153" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I153" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K153" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7907,11 +7907,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -7919,7 +7919,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -7929,19 +7929,19 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K154" t="n">
         <v>0</v>
       </c>
       <c r="L154" t="n">
-        <v>1337</v>
+        <v>985</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -7955,41 +7955,43 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H155" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="I155" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K155" t="n">
-        <v>55</v>
-      </c>
-      <c r="L155" t="n">
-        <v>1696</v>
+        <v>0</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -8007,7 +8009,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -8018,10 +8020,10 @@
         <v>50</v>
       </c>
       <c r="H156" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I156" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
@@ -8029,7 +8031,7 @@
         </is>
       </c>
       <c r="K156" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -8039,7 +8041,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -8057,7 +8059,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -8068,10 +8070,10 @@
         <v>50</v>
       </c>
       <c r="H157" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I157" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
@@ -8079,7 +8081,7 @@
         </is>
       </c>
       <c r="K157" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -8089,7 +8091,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45300</v>
+        <v>45297</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -8107,21 +8109,21 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H158" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I158" s="2" t="n">
-        <v>45300</v>
+        <v>45292</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
@@ -8129,12 +8131,10 @@
         </is>
       </c>
       <c r="K158" t="n">
-        <v>27</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>1341</v>
       </c>
     </row>
     <row r="159">
@@ -8143,7 +8143,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -8153,7 +8153,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -8161,28 +8161,28 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
       </c>
       <c r="I159" s="2" t="n">
-        <v>45292</v>
+        <v>45297</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K159" t="n">
         <v>0</v>
       </c>
       <c r="L159" t="n">
-        <v>1337</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="160">
@@ -8191,7 +8191,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8201,11 +8201,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -8213,21 +8213,21 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H160" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I160" s="2" t="n">
         <v>45298</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K160" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8251,11 +8251,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -8263,21 +8263,21 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H161" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I161" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K161" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8301,11 +8301,11 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E162" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -8313,21 +8313,21 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H162" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I162" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K162" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -8341,7 +8341,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8351,19 +8351,19 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E163" t="n">
+        <v>50</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
         <v>60</v>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="G163" t="n">
-        <v>75</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -8373,14 +8373,14 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K163" t="n">
         <v>0</v>
       </c>
       <c r="L163" t="n">
-        <v>943</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="164">
@@ -8389,7 +8389,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8403,15 +8403,15 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="L164" t="n">
-        <v>962</v>
+        <v>985</v>
       </c>
     </row>
     <row r="165">
@@ -8442,16 +8442,16 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
@@ -8459,7 +8459,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -8469,14 +8469,14 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K165" t="n">
         <v>0</v>
       </c>
       <c r="L165" t="n">
-        <v>1382</v>
+        <v>985</v>
       </c>
     </row>
     <row r="166">
@@ -8490,16 +8490,16 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E166" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
@@ -8507,7 +8507,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -8517,14 +8517,14 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K166" t="n">
         <v>0</v>
       </c>
       <c r="L166" t="n">
-        <v>1382</v>
+        <v>985</v>
       </c>
     </row>
     <row r="167">
@@ -8538,24 +8538,24 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -8565,14 +8565,14 @@
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K167" t="n">
         <v>0</v>
       </c>
       <c r="L167" t="n">
-        <v>1382</v>
+        <v>985</v>
       </c>
     </row>
     <row r="168">
@@ -8581,7 +8581,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -8595,15 +8595,15 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -8620,7 +8620,7 @@
         <v>0</v>
       </c>
       <c r="L168" t="n">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="169">
@@ -8629,21 +8629,21 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -8651,7 +8651,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -8661,14 +8661,14 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K169" t="n">
         <v>0</v>
       </c>
       <c r="L169" t="n">
-        <v>962</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="170">
@@ -8677,21 +8677,21 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -8709,14 +8709,14 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K170" t="n">
         <v>0</v>
       </c>
       <c r="L170" t="n">
-        <v>962</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="171">
@@ -8725,29 +8725,29 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G171" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -8757,14 +8757,14 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K171" t="n">
         <v>0</v>
       </c>
       <c r="L171" t="n">
-        <v>962</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="172">
@@ -8778,24 +8778,24 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -8805,14 +8805,14 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K172" t="n">
         <v>0</v>
       </c>
       <c r="L172" t="n">
-        <v>962</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="173">
@@ -8821,7 +8821,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -8835,7 +8835,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -8843,7 +8843,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="n">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="174">
@@ -8869,7 +8869,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -8883,7 +8883,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -8908,7 +8908,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="n">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="175">
@@ -8917,7 +8917,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -8931,15 +8931,15 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="n">
-        <v>1382</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="176">
@@ -8970,16 +8970,16 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -8997,14 +8997,14 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K176" t="n">
         <v>0</v>
       </c>
       <c r="L176" t="n">
-        <v>1382</v>
+        <v>985</v>
       </c>
     </row>
     <row r="177">
@@ -9013,7 +9013,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -9027,7 +9027,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -9035,10 +9035,10 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H177" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="I177" s="2" t="n">
         <v>45298</v>
@@ -9049,10 +9049,10 @@
         </is>
       </c>
       <c r="K177" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
-        <v>1589</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="178">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -9071,11 +9071,11 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -9083,21 +9083,21 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H178" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I178" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K178" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -9121,11 +9121,11 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -9133,21 +9133,21 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H179" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I179" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K179" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -9171,11 +9171,11 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -9183,21 +9183,21 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H180" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I180" s="2" t="n">
         <v>45301</v>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K180" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -9211,7 +9211,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9221,11 +9221,11 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -9233,7 +9233,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -9243,19 +9243,19 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K181" t="n">
         <v>0</v>
       </c>
       <c r="L181" t="n">
-        <v>1382</v>
+        <v>985</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -9269,41 +9269,43 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H182" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="I182" s="2" t="n">
-        <v>45298</v>
+        <v>45299</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K182" t="n">
-        <v>63</v>
-      </c>
-      <c r="L182" t="n">
-        <v>1589</v>
+        <v>0</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -9332,10 +9334,10 @@
         <v>50</v>
       </c>
       <c r="H183" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I183" s="2" t="n">
-        <v>45299</v>
+        <v>45300</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
@@ -9343,7 +9345,7 @@
         </is>
       </c>
       <c r="K183" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -9353,7 +9355,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -9371,7 +9373,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -9382,10 +9384,10 @@
         <v>50</v>
       </c>
       <c r="H184" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I184" s="2" t="n">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="J184" t="inlineStr">
         <is>
@@ -9393,7 +9395,7 @@
         </is>
       </c>
       <c r="K184" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -9403,7 +9405,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45301</v>
+        <v>45298</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -9421,21 +9423,21 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G185" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H185" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I185" s="2" t="n">
-        <v>45301</v>
+        <v>45292</v>
       </c>
       <c r="J185" t="inlineStr">
         <is>
@@ -9443,12 +9445,10 @@
         </is>
       </c>
       <c r="K185" t="n">
-        <v>31</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1380</v>
       </c>
     </row>
     <row r="186">
@@ -9457,7 +9457,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9467,7 +9467,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -9475,28 +9475,28 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G186" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
       </c>
       <c r="I186" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K186" t="n">
         <v>0</v>
       </c>
       <c r="L186" t="n">
-        <v>1382</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="187">
@@ -9505,7 +9505,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -9515,11 +9515,11 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E187" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -9527,21 +9527,21 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H187" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I187" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K187" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -9555,7 +9555,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -9565,11 +9565,11 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E188" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -9577,21 +9577,21 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H188" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I188" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K188" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -9605,7 +9605,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9615,11 +9615,11 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E189" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -9627,21 +9627,21 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H189" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I189" s="2" t="n">
         <v>45301</v>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K189" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -9655,7 +9655,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9665,19 +9665,19 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E190" t="n">
+        <v>50</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
         <v>60</v>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="G190" t="n">
-        <v>75</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -9687,14 +9687,14 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K190" t="n">
         <v>0</v>
       </c>
       <c r="L190" t="n">
-        <v>962</v>
+        <v>1380</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_deployment_plan_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_deployment_plan_report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L295"/>
+  <dimension ref="A1:M295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,10 +490,15 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>leadtime</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>deployed_qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quota</t>
         </is>
@@ -510,16 +515,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -527,7 +532,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -537,14 +542,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1498</v>
       </c>
     </row>
     <row r="3">
@@ -558,16 +566,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -575,7 +583,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -585,14 +593,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1498</v>
       </c>
     </row>
     <row r="4">
@@ -606,16 +617,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -623,7 +634,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -633,14 +644,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1498</v>
       </c>
     </row>
     <row r="5">
@@ -654,16 +668,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -671,7 +685,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -681,14 +695,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1498</v>
       </c>
     </row>
     <row r="6">
@@ -702,16 +719,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -719,7 +736,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -729,14 +746,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1498</v>
       </c>
     </row>
     <row r="7">
@@ -750,16 +770,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -767,7 +787,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -777,14 +797,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1498</v>
       </c>
     </row>
     <row r="8">
@@ -793,7 +816,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -807,18 +830,18 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>45292</v>
@@ -829,9 +852,12 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>985</v>
       </c>
     </row>
@@ -846,16 +872,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -863,7 +889,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -873,14 +899,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1498</v>
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="10">
@@ -894,16 +923,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -911,7 +940,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -921,14 +950,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1498</v>
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="11">
@@ -942,16 +974,16 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -959,7 +991,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -969,14 +1001,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1498</v>
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="12">
@@ -990,16 +1025,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1007,7 +1042,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1017,14 +1052,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1498</v>
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="13">
@@ -1038,24 +1076,24 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1065,14 +1103,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1498</v>
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="14">
@@ -1081,7 +1122,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1095,15 +1136,15 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1120,6 +1161,9 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>1498</v>
       </c>
     </row>
@@ -1143,7 +1187,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1151,7 +1195,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1168,6 +1212,9 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>1498</v>
       </c>
     </row>
@@ -1191,7 +1238,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1199,7 +1246,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1216,6 +1263,9 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
         <v>1498</v>
       </c>
     </row>
@@ -1239,7 +1289,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1247,7 +1297,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1264,6 +1314,9 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>1498</v>
       </c>
     </row>
@@ -1312,6 +1365,9 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>1498</v>
       </c>
     </row>
@@ -1360,6 +1416,9 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>1498</v>
       </c>
     </row>
@@ -1383,7 +1442,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1391,7 +1450,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1408,6 +1467,9 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>1498</v>
       </c>
     </row>
@@ -1431,15 +1493,15 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1456,6 +1518,9 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
         <v>1498</v>
       </c>
     </row>
@@ -1470,16 +1535,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1487,24 +1552,27 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1498</v>
+        <v>15</v>
+      </c>
+      <c r="M22" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="23">
@@ -1549,9 +1617,12 @@
         </is>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>83</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -1571,11 +1642,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1593,13 +1664,16 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
+        <v>5</v>
+      </c>
+      <c r="L24" t="n">
         <v>41</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1621,11 +1695,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1643,13 +1717,16 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K25" t="n">
+        <v>5</v>
+      </c>
+      <c r="L25" t="n">
         <v>41</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1671,11 +1748,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1693,13 +1770,16 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K26" t="n">
+        <v>5</v>
+      </c>
+      <c r="L26" t="n">
         <v>41</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1721,11 +1801,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1743,13 +1823,16 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K27" t="n">
+        <v>5</v>
+      </c>
+      <c r="L27" t="n">
         <v>41</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1771,11 +1854,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1793,13 +1876,16 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K28" t="n">
+        <v>5</v>
+      </c>
+      <c r="L28" t="n">
         <v>41</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1821,11 +1907,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1833,7 +1919,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1843,14 +1929,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1498</v>
       </c>
     </row>
     <row r="30">
@@ -1869,11 +1958,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1891,13 +1980,16 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K30" t="n">
+        <v>5</v>
+      </c>
+      <c r="L30" t="n">
         <v>41</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1919,11 +2011,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1941,13 +2033,16 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K31" t="n">
+        <v>5</v>
+      </c>
+      <c r="L31" t="n">
         <v>41</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1969,11 +2064,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1991,13 +2086,16 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K32" t="n">
+        <v>5</v>
+      </c>
+      <c r="L32" t="n">
         <v>41</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2019,11 +2117,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2041,13 +2139,16 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K33" t="n">
+        <v>5</v>
+      </c>
+      <c r="L33" t="n">
         <v>41</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2069,11 +2170,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2091,13 +2192,16 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K34" t="n">
+        <v>5</v>
+      </c>
+      <c r="L34" t="n">
         <v>41</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2119,11 +2223,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2131,7 +2235,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2141,14 +2245,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
-        <v>1498</v>
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="36">
@@ -2193,9 +2300,12 @@
         </is>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>80</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>1000</v>
       </c>
     </row>
@@ -2241,9 +2351,12 @@
         </is>
       </c>
       <c r="K37" t="n">
+        <v>7</v>
+      </c>
+      <c r="L37" t="n">
         <v>40</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2291,9 +2404,12 @@
         </is>
       </c>
       <c r="K38" t="n">
+        <v>7</v>
+      </c>
+      <c r="L38" t="n">
         <v>40</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2341,9 +2457,12 @@
         </is>
       </c>
       <c r="K39" t="n">
+        <v>7</v>
+      </c>
+      <c r="L39" t="n">
         <v>40</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2391,9 +2510,12 @@
         </is>
       </c>
       <c r="K40" t="n">
+        <v>7</v>
+      </c>
+      <c r="L40" t="n">
         <v>40</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2441,9 +2563,12 @@
         </is>
       </c>
       <c r="K41" t="n">
+        <v>7</v>
+      </c>
+      <c r="L41" t="n">
         <v>40</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2491,9 +2616,12 @@
         </is>
       </c>
       <c r="K42" t="n">
+        <v>7</v>
+      </c>
+      <c r="L42" t="n">
         <v>40</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2541,9 +2669,12 @@
         </is>
       </c>
       <c r="K43" t="n">
+        <v>7</v>
+      </c>
+      <c r="L43" t="n">
         <v>60</v>
       </c>
-      <c r="L43" t="n">
+      <c r="M43" t="n">
         <v>1498</v>
       </c>
     </row>
@@ -2558,16 +2689,16 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2575,7 +2706,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2585,14 +2716,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="45">
@@ -2606,16 +2740,16 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2623,7 +2757,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2633,14 +2767,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="46">
@@ -2654,16 +2791,16 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2671,7 +2808,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2681,14 +2818,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="47">
@@ -2702,16 +2842,16 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2719,7 +2859,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2729,14 +2869,17 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="48">
@@ -2750,16 +2893,16 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2767,7 +2910,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2777,14 +2920,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="49">
@@ -2798,16 +2944,16 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2815,7 +2961,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2825,14 +2971,17 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="50">
@@ -2841,7 +2990,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2855,15 +3004,15 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2880,6 +3029,9 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
         <v>985</v>
       </c>
     </row>
@@ -2894,16 +3046,16 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -2911,7 +3063,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2921,14 +3073,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>1500</v>
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="52">
@@ -2942,16 +3097,16 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -2959,7 +3114,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2969,14 +3124,17 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>1500</v>
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="53">
@@ -2990,12 +3148,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -3017,14 +3175,17 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>1500</v>
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="54">
@@ -3038,16 +3199,16 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3055,7 +3216,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3065,14 +3226,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>1500</v>
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="55">
@@ -3086,24 +3250,24 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3113,14 +3277,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>1500</v>
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="56">
@@ -3129,7 +3296,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3143,15 +3310,15 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3168,6 +3335,9 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -3191,7 +3361,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3199,7 +3369,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3216,6 +3386,9 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -3239,7 +3412,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3247,7 +3420,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3264,6 +3437,9 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -3312,6 +3488,9 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -3360,6 +3539,9 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -3383,7 +3565,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3391,7 +3573,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3408,6 +3590,9 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -3456,6 +3641,9 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -3479,15 +3667,15 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3504,6 +3692,9 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -3518,16 +3709,16 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3535,7 +3726,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3545,14 +3736,17 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1500</v>
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="65">
@@ -3597,9 +3791,12 @@
         </is>
       </c>
       <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
         <v>1</v>
       </c>
-      <c r="L65" t="n">
+      <c r="M65" t="n">
         <v>1339</v>
       </c>
     </row>
@@ -3619,11 +3816,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3641,13 +3838,16 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -3669,11 +3869,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3691,13 +3891,16 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -3719,11 +3922,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3741,13 +3944,16 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -3769,11 +3975,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3791,13 +3997,16 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -3819,11 +4028,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -3841,13 +4050,16 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -3869,11 +4081,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3881,7 +4093,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3891,14 +4103,17 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L71" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="72">
@@ -3917,11 +4132,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -3939,13 +4154,16 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -3967,11 +4185,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -3989,13 +4207,16 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
-      </c>
-      <c r="L73" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -4017,11 +4238,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -4039,13 +4260,16 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -4067,11 +4291,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -4089,13 +4313,16 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -4117,11 +4344,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -4139,13 +4366,16 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -4167,11 +4397,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -4179,7 +4409,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4189,14 +4419,17 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L77" t="n">
-        <v>1500</v>
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="78">
@@ -4241,9 +4474,12 @@
         </is>
       </c>
       <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
         <v>30</v>
       </c>
-      <c r="L78" t="n">
+      <c r="M78" t="n">
         <v>1339</v>
       </c>
     </row>
@@ -4289,9 +4525,12 @@
         </is>
       </c>
       <c r="K79" t="n">
+        <v>7</v>
+      </c>
+      <c r="L79" t="n">
         <v>15</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -4339,9 +4578,12 @@
         </is>
       </c>
       <c r="K80" t="n">
+        <v>7</v>
+      </c>
+      <c r="L80" t="n">
         <v>15</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -4389,9 +4631,12 @@
         </is>
       </c>
       <c r="K81" t="n">
+        <v>7</v>
+      </c>
+      <c r="L81" t="n">
         <v>15</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -4439,9 +4684,12 @@
         </is>
       </c>
       <c r="K82" t="n">
+        <v>7</v>
+      </c>
+      <c r="L82" t="n">
         <v>15</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="M82" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -4489,9 +4737,12 @@
         </is>
       </c>
       <c r="K83" t="n">
+        <v>7</v>
+      </c>
+      <c r="L83" t="n">
         <v>15</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="M83" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -4539,9 +4790,12 @@
         </is>
       </c>
       <c r="K84" t="n">
+        <v>7</v>
+      </c>
+      <c r="L84" t="n">
         <v>15</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="M84" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -4589,9 +4843,12 @@
         </is>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -4606,16 +4863,16 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4623,24 +4880,27 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I86" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K86" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>945</v>
+        <v>7</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="87">
@@ -4654,16 +4914,16 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4671,24 +4931,27 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H87" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I87" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K87" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>945</v>
+        <v>7</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="88">
@@ -4702,16 +4965,16 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4719,24 +4982,27 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H88" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I88" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K88" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>945</v>
+        <v>6</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="89">
@@ -4750,16 +5016,16 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -4767,24 +5033,27 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H89" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I89" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K89" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>945</v>
+        <v>7</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="90">
@@ -4798,16 +5067,16 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -4815,24 +5084,27 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H90" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I90" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K90" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>945</v>
+        <v>9</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="91">
@@ -4846,16 +5118,16 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4863,24 +5135,27 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H91" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I91" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K91" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>945</v>
+        <v>14</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="92">
@@ -4889,7 +5164,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4903,18 +5178,18 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I92" s="2" t="n">
         <v>45294</v>
@@ -4928,6 +5203,9 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
+        <v>6</v>
+      </c>
+      <c r="M92" t="n">
         <v>945</v>
       </c>
     </row>
@@ -4942,16 +5220,16 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4959,24 +5237,27 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H93" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I93" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K93" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>1389</v>
+        <v>6</v>
+      </c>
+      <c r="M93" t="n">
+        <v>945</v>
       </c>
     </row>
     <row r="94">
@@ -4990,16 +5271,16 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -5007,24 +5288,27 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H94" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I94" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K94" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>1389</v>
+        <v>5</v>
+      </c>
+      <c r="M94" t="n">
+        <v>945</v>
       </c>
     </row>
     <row r="95">
@@ -5038,12 +5322,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -5058,21 +5342,24 @@
         <v>35</v>
       </c>
       <c r="H95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I95" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K95" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>1389</v>
+        <v>5</v>
+      </c>
+      <c r="M95" t="n">
+        <v>945</v>
       </c>
     </row>
     <row r="96">
@@ -5086,16 +5373,16 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -5103,7 +5390,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H96" t="n">
         <v>7</v>
@@ -5113,14 +5400,17 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
         <v>7</v>
       </c>
-      <c r="L96" t="n">
-        <v>1389</v>
+      <c r="M96" t="n">
+        <v>945</v>
       </c>
     </row>
     <row r="97">
@@ -5134,41 +5424,44 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H97" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I97" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K97" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>1389</v>
+        <v>10</v>
+      </c>
+      <c r="M97" t="n">
+        <v>945</v>
       </c>
     </row>
     <row r="98">
@@ -5177,7 +5470,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5191,18 +5484,18 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H98" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I98" s="2" t="n">
         <v>45294</v>
@@ -5213,9 +5506,12 @@
         </is>
       </c>
       <c r="K98" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
+        <v>6</v>
+      </c>
+      <c r="M98" t="n">
         <v>1389</v>
       </c>
     </row>
@@ -5239,7 +5535,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -5247,10 +5543,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H99" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I99" s="2" t="n">
         <v>45294</v>
@@ -5261,9 +5557,12 @@
         </is>
       </c>
       <c r="K99" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
+        <v>5</v>
+      </c>
+      <c r="M99" t="n">
         <v>1389</v>
       </c>
     </row>
@@ -5287,7 +5586,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5295,10 +5594,10 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H100" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I100" s="2" t="n">
         <v>45294</v>
@@ -5309,9 +5608,12 @@
         </is>
       </c>
       <c r="K100" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
+        <v>6</v>
+      </c>
+      <c r="M100" t="n">
         <v>1389</v>
       </c>
     </row>
@@ -5357,9 +5659,12 @@
         </is>
       </c>
       <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
         <v>6</v>
       </c>
-      <c r="L101" t="n">
+      <c r="M101" t="n">
         <v>1389</v>
       </c>
     </row>
@@ -5383,7 +5688,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -5391,10 +5696,10 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H102" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I102" s="2" t="n">
         <v>45294</v>
@@ -5405,9 +5710,12 @@
         </is>
       </c>
       <c r="K102" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
+        <v>7</v>
+      </c>
+      <c r="M102" t="n">
         <v>1389</v>
       </c>
     </row>
@@ -5453,9 +5761,12 @@
         </is>
       </c>
       <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
         <v>7</v>
       </c>
-      <c r="L103" t="n">
+      <c r="M103" t="n">
         <v>1389</v>
       </c>
     </row>
@@ -5501,9 +5812,12 @@
         </is>
       </c>
       <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
         <v>7</v>
       </c>
-      <c r="L104" t="n">
+      <c r="M104" t="n">
         <v>1389</v>
       </c>
     </row>
@@ -5527,18 +5841,18 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H105" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I105" s="2" t="n">
         <v>45294</v>
@@ -5549,9 +5863,12 @@
         </is>
       </c>
       <c r="K105" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
+        <v>10</v>
+      </c>
+      <c r="M105" t="n">
         <v>1389</v>
       </c>
     </row>
@@ -5566,16 +5883,16 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -5583,24 +5900,27 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H106" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I106" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K106" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>1389</v>
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>945</v>
       </c>
     </row>
     <row r="107">
@@ -5645,9 +5965,12 @@
         </is>
       </c>
       <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
         <v>1</v>
       </c>
-      <c r="L107" t="n">
+      <c r="M107" t="n">
         <v>1652</v>
       </c>
     </row>
@@ -5667,11 +5990,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -5689,13 +6012,16 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -5717,11 +6043,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -5739,13 +6065,16 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -5767,11 +6096,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -5789,13 +6118,16 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -5817,11 +6149,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5839,13 +6171,16 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -5867,11 +6202,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5889,13 +6224,16 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -5917,11 +6255,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -5929,7 +6267,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -5939,14 +6277,17 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L113" t="n">
-        <v>945</v>
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1389</v>
       </c>
     </row>
     <row r="114">
@@ -5965,11 +6306,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5987,13 +6328,16 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6015,11 +6359,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -6037,13 +6381,16 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6065,11 +6412,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -6087,13 +6434,16 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6115,11 +6465,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -6137,13 +6487,16 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6165,11 +6518,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -6187,13 +6540,16 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6215,11 +6571,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -6227,7 +6583,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -6237,14 +6593,17 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L119" t="n">
-        <v>1389</v>
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>945</v>
       </c>
     </row>
     <row r="120">
@@ -6292,6 +6651,9 @@
         <v>0</v>
       </c>
       <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
         <v>1652</v>
       </c>
     </row>
@@ -6337,9 +6699,12 @@
         </is>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6387,9 +6752,12 @@
         </is>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6437,9 +6805,12 @@
         </is>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
-      </c>
-      <c r="L123" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6487,9 +6858,12 @@
         </is>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
-      </c>
-      <c r="L124" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6537,9 +6911,12 @@
         </is>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
-      </c>
-      <c r="L125" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6587,9 +6964,12 @@
         </is>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
-      </c>
-      <c r="L126" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -6637,9 +7017,12 @@
         </is>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
         <v>1389</v>
       </c>
     </row>
@@ -6654,16 +7037,16 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -6671,24 +7054,27 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I128" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>928</v>
+        <v>4</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1278</v>
       </c>
     </row>
     <row r="129">
@@ -6702,16 +7088,16 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -6719,24 +7105,27 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I129" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>928</v>
+        <v>4</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1278</v>
       </c>
     </row>
     <row r="130">
@@ -6750,16 +7139,16 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -6767,24 +7156,27 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I130" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>928</v>
+        <v>3</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1278</v>
       </c>
     </row>
     <row r="131">
@@ -6798,16 +7190,16 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -6815,24 +7207,27 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I131" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>928</v>
+        <v>4</v>
+      </c>
+      <c r="M131" t="n">
+        <v>1278</v>
       </c>
     </row>
     <row r="132">
@@ -6846,16 +7241,16 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -6863,24 +7258,27 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I132" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>928</v>
+        <v>4</v>
+      </c>
+      <c r="M132" t="n">
+        <v>1278</v>
       </c>
     </row>
     <row r="133">
@@ -6894,16 +7292,16 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -6911,24 +7309,27 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H133" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I133" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K133" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L133" t="n">
-        <v>928</v>
+        <v>7</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1278</v>
       </c>
     </row>
     <row r="134">
@@ -6937,7 +7338,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6951,18 +7352,18 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" s="2" t="n">
         <v>45295</v>
@@ -6976,6 +7377,9 @@
         <v>0</v>
       </c>
       <c r="L134" t="n">
+        <v>2</v>
+      </c>
+      <c r="M134" t="n">
         <v>928</v>
       </c>
     </row>
@@ -6990,16 +7394,16 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -7007,24 +7411,27 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H135" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I135" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K135" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>1278</v>
+        <v>2</v>
+      </c>
+      <c r="M135" t="n">
+        <v>928</v>
       </c>
     </row>
     <row r="136">
@@ -7038,16 +7445,16 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -7055,24 +7462,27 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H136" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I136" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K136" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>1278</v>
+        <v>2</v>
+      </c>
+      <c r="M136" t="n">
+        <v>928</v>
       </c>
     </row>
     <row r="137">
@@ -7086,16 +7496,16 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -7103,7 +7513,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H137" t="n">
         <v>3</v>
@@ -7113,14 +7523,17 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
         <v>3</v>
       </c>
-      <c r="L137" t="n">
-        <v>1278</v>
+      <c r="M137" t="n">
+        <v>928</v>
       </c>
     </row>
     <row r="138">
@@ -7134,16 +7547,16 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E138" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -7151,24 +7564,27 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H138" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I138" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K138" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>1278</v>
+        <v>3</v>
+      </c>
+      <c r="M138" t="n">
+        <v>928</v>
       </c>
     </row>
     <row r="139">
@@ -7182,24 +7598,24 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H139" t="n">
         <v>4</v>
@@ -7209,14 +7625,17 @@
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
         <v>4</v>
       </c>
-      <c r="L139" t="n">
-        <v>1278</v>
+      <c r="M139" t="n">
+        <v>928</v>
       </c>
     </row>
     <row r="140">
@@ -7225,7 +7644,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7239,18 +7658,18 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="H140" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I140" s="2" t="n">
         <v>45295</v>
@@ -7261,9 +7680,12 @@
         </is>
       </c>
       <c r="K140" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
+        <v>9</v>
+      </c>
+      <c r="M140" t="n">
         <v>1278</v>
       </c>
     </row>
@@ -7287,7 +7709,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -7295,10 +7717,10 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H141" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I141" s="2" t="n">
         <v>45295</v>
@@ -7309,9 +7731,12 @@
         </is>
       </c>
       <c r="K141" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
+        <v>7</v>
+      </c>
+      <c r="M141" t="n">
         <v>1278</v>
       </c>
     </row>
@@ -7335,7 +7760,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -7343,10 +7768,10 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H142" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I142" s="2" t="n">
         <v>45295</v>
@@ -7357,9 +7782,12 @@
         </is>
       </c>
       <c r="K142" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
+        <v>9</v>
+      </c>
+      <c r="M142" t="n">
         <v>1278</v>
       </c>
     </row>
@@ -7383,7 +7811,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -7391,10 +7819,10 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H143" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I143" s="2" t="n">
         <v>45295</v>
@@ -7405,9 +7833,12 @@
         </is>
       </c>
       <c r="K143" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
+        <v>11</v>
+      </c>
+      <c r="M143" t="n">
         <v>1278</v>
       </c>
     </row>
@@ -7453,9 +7884,12 @@
         </is>
       </c>
       <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
         <v>11</v>
       </c>
-      <c r="L144" t="n">
+      <c r="M144" t="n">
         <v>1278</v>
       </c>
     </row>
@@ -7501,9 +7935,12 @@
         </is>
       </c>
       <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
         <v>11</v>
       </c>
-      <c r="L145" t="n">
+      <c r="M145" t="n">
         <v>1278</v>
       </c>
     </row>
@@ -7549,9 +7986,12 @@
         </is>
       </c>
       <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
         <v>11</v>
       </c>
-      <c r="L146" t="n">
+      <c r="M146" t="n">
         <v>1278</v>
       </c>
     </row>
@@ -7575,18 +8015,18 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H147" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I147" s="2" t="n">
         <v>45295</v>
@@ -7597,9 +8037,12 @@
         </is>
       </c>
       <c r="K147" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
+        <v>16</v>
+      </c>
+      <c r="M147" t="n">
         <v>1278</v>
       </c>
     </row>
@@ -7614,16 +8057,16 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -7631,24 +8074,27 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H148" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I148" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K148" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
-        <v>1278</v>
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>928</v>
       </c>
     </row>
     <row r="149">
@@ -7696,6 +8142,9 @@
         <v>0</v>
       </c>
       <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
         <v>1776</v>
       </c>
     </row>
@@ -7715,11 +8164,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -7737,13 +8186,16 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
-      </c>
-      <c r="L150" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7765,11 +8217,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -7787,13 +8239,16 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
-      </c>
-      <c r="L151" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7815,11 +8270,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -7837,13 +8292,16 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
-      </c>
-      <c r="L152" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7865,11 +8323,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -7887,13 +8345,16 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
-      </c>
-      <c r="L153" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7915,11 +8376,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -7937,13 +8398,16 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
-      </c>
-      <c r="L154" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -7965,11 +8429,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -7987,14 +8451,17 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K155" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L155" t="n">
-        <v>928</v>
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1278</v>
       </c>
     </row>
     <row r="156">
@@ -8013,11 +8480,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -8035,13 +8502,16 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
-      </c>
-      <c r="L156" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -8063,11 +8533,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -8085,13 +8555,16 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K157" t="n">
-        <v>0</v>
-      </c>
-      <c r="L157" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -8113,11 +8586,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -8135,13 +8608,16 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K158" t="n">
-        <v>0</v>
-      </c>
-      <c r="L158" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -8163,11 +8639,11 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -8185,13 +8661,16 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K159" t="n">
-        <v>0</v>
-      </c>
-      <c r="L159" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -8213,11 +8692,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -8235,13 +8714,16 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
-      </c>
-      <c r="L160" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -8263,11 +8745,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -8285,14 +8767,17 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K161" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L161" t="n">
-        <v>1278</v>
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>928</v>
       </c>
     </row>
     <row r="162">
@@ -8340,6 +8825,9 @@
         <v>0</v>
       </c>
       <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
         <v>1776</v>
       </c>
     </row>
@@ -8385,9 +8873,12 @@
         </is>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
-      </c>
-      <c r="L163" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -8435,9 +8926,12 @@
         </is>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
-      </c>
-      <c r="L164" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0</v>
+      </c>
+      <c r="M164" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -8485,9 +8979,12 @@
         </is>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
-      </c>
-      <c r="L165" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0</v>
+      </c>
+      <c r="M165" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -8535,9 +9032,12 @@
         </is>
       </c>
       <c r="K166" t="n">
-        <v>0</v>
-      </c>
-      <c r="L166" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0</v>
+      </c>
+      <c r="M166" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -8585,9 +9085,12 @@
         </is>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
-      </c>
-      <c r="L167" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0</v>
+      </c>
+      <c r="M167" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -8635,9 +9138,12 @@
         </is>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
-      </c>
-      <c r="L168" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0</v>
+      </c>
+      <c r="M168" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -8685,9 +9191,12 @@
         </is>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
         <v>1278</v>
       </c>
     </row>
@@ -8702,16 +9211,16 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E170" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -8719,7 +9228,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -8729,14 +9238,17 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K170" t="n">
         <v>0</v>
       </c>
       <c r="L170" t="n">
-        <v>946</v>
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1250</v>
       </c>
     </row>
     <row r="171">
@@ -8750,16 +9262,16 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -8767,7 +9279,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -8777,14 +9289,17 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K171" t="n">
         <v>0</v>
       </c>
       <c r="L171" t="n">
-        <v>946</v>
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1250</v>
       </c>
     </row>
     <row r="172">
@@ -8798,16 +9313,16 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E172" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -8815,7 +9330,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -8825,14 +9340,17 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K172" t="n">
         <v>0</v>
       </c>
       <c r="L172" t="n">
-        <v>946</v>
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1250</v>
       </c>
     </row>
     <row r="173">
@@ -8846,16 +9364,16 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E173" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -8863,7 +9381,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -8873,14 +9391,17 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K173" t="n">
         <v>0</v>
       </c>
       <c r="L173" t="n">
-        <v>946</v>
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>1250</v>
       </c>
     </row>
     <row r="174">
@@ -8894,16 +9415,16 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E174" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -8911,7 +9432,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -8921,14 +9442,17 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K174" t="n">
         <v>0</v>
       </c>
       <c r="L174" t="n">
-        <v>946</v>
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>1250</v>
       </c>
     </row>
     <row r="175">
@@ -8942,16 +9466,16 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E175" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -8959,7 +9483,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -8969,14 +9493,17 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K175" t="n">
         <v>0</v>
       </c>
       <c r="L175" t="n">
-        <v>946</v>
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1250</v>
       </c>
     </row>
     <row r="176">
@@ -8985,7 +9512,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -8999,15 +9526,15 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -9024,6 +9551,9 @@
         <v>0</v>
       </c>
       <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
         <v>946</v>
       </c>
     </row>
@@ -9038,16 +9568,16 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -9055,7 +9585,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -9065,14 +9595,17 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K177" t="n">
         <v>0</v>
       </c>
       <c r="L177" t="n">
-        <v>1250</v>
+        <v>0</v>
+      </c>
+      <c r="M177" t="n">
+        <v>946</v>
       </c>
     </row>
     <row r="178">
@@ -9086,16 +9619,16 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E178" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -9103,7 +9636,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -9113,14 +9646,17 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K178" t="n">
         <v>0</v>
       </c>
       <c r="L178" t="n">
-        <v>1250</v>
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>946</v>
       </c>
     </row>
     <row r="179">
@@ -9134,16 +9670,16 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E179" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -9151,7 +9687,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -9161,14 +9697,17 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K179" t="n">
         <v>0</v>
       </c>
       <c r="L179" t="n">
-        <v>1250</v>
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>946</v>
       </c>
     </row>
     <row r="180">
@@ -9182,16 +9721,16 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E180" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -9199,7 +9738,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -9209,14 +9748,17 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K180" t="n">
         <v>0</v>
       </c>
       <c r="L180" t="n">
-        <v>1250</v>
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>946</v>
       </c>
     </row>
     <row r="181">
@@ -9230,24 +9772,24 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E181" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -9257,14 +9799,17 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K181" t="n">
         <v>0</v>
       </c>
       <c r="L181" t="n">
-        <v>1250</v>
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>946</v>
       </c>
     </row>
     <row r="182">
@@ -9273,7 +9818,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9287,18 +9832,18 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I182" s="2" t="n">
         <v>45296</v>
@@ -9312,6 +9857,9 @@
         <v>0</v>
       </c>
       <c r="L182" t="n">
+        <v>8</v>
+      </c>
+      <c r="M182" t="n">
         <v>1250</v>
       </c>
     </row>
@@ -9335,7 +9883,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -9343,10 +9891,10 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H183" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I183" s="2" t="n">
         <v>45296</v>
@@ -9357,9 +9905,12 @@
         </is>
       </c>
       <c r="K183" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L183" t="n">
+        <v>7</v>
+      </c>
+      <c r="M183" t="n">
         <v>1250</v>
       </c>
     </row>
@@ -9383,7 +9934,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -9391,10 +9942,10 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H184" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I184" s="2" t="n">
         <v>45296</v>
@@ -9405,9 +9956,12 @@
         </is>
       </c>
       <c r="K184" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
+        <v>11</v>
+      </c>
+      <c r="M184" t="n">
         <v>1250</v>
       </c>
     </row>
@@ -9453,9 +10007,12 @@
         </is>
       </c>
       <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
         <v>11</v>
       </c>
-      <c r="L185" t="n">
+      <c r="M185" t="n">
         <v>1250</v>
       </c>
     </row>
@@ -9501,9 +10058,12 @@
         </is>
       </c>
       <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
         <v>11</v>
       </c>
-      <c r="L186" t="n">
+      <c r="M186" t="n">
         <v>1250</v>
       </c>
     </row>
@@ -9549,9 +10109,12 @@
         </is>
       </c>
       <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
         <v>11</v>
       </c>
-      <c r="L187" t="n">
+      <c r="M187" t="n">
         <v>1250</v>
       </c>
     </row>
@@ -9597,9 +10160,12 @@
         </is>
       </c>
       <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
         <v>11</v>
       </c>
-      <c r="L188" t="n">
+      <c r="M188" t="n">
         <v>1250</v>
       </c>
     </row>
@@ -9623,18 +10189,18 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G189" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H189" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I189" s="2" t="n">
         <v>45296</v>
@@ -9645,9 +10211,12 @@
         </is>
       </c>
       <c r="K189" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
+        <v>15</v>
+      </c>
+      <c r="M189" t="n">
         <v>1250</v>
       </c>
     </row>
@@ -9662,16 +10231,16 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E190" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -9679,24 +10248,27 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H190" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I190" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K190" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L190" t="n">
-        <v>1250</v>
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>946</v>
       </c>
     </row>
     <row r="191">
@@ -9744,6 +10316,9 @@
         <v>0</v>
       </c>
       <c r="L191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M191" t="n">
         <v>1776</v>
       </c>
     </row>
@@ -9763,11 +10338,11 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -9785,13 +10360,16 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K192" t="n">
-        <v>0</v>
-      </c>
-      <c r="L192" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M192" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -9813,11 +10391,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -9835,13 +10413,16 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K193" t="n">
-        <v>0</v>
-      </c>
-      <c r="L193" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -9863,11 +10444,11 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -9885,13 +10466,16 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K194" t="n">
-        <v>0</v>
-      </c>
-      <c r="L194" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M194" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -9913,11 +10497,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -9935,13 +10519,16 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L195" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -9963,11 +10550,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -9985,13 +10572,16 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K196" t="n">
-        <v>0</v>
-      </c>
-      <c r="L196" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M196" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -10013,11 +10603,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -10025,7 +10615,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -10035,14 +10625,17 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K197" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L197" t="n">
-        <v>946</v>
+        <v>0</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1250</v>
       </c>
     </row>
     <row r="198">
@@ -10061,11 +10654,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -10083,13 +10676,16 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K198" t="n">
-        <v>0</v>
-      </c>
-      <c r="L198" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -10111,11 +10707,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -10133,13 +10729,16 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K199" t="n">
-        <v>0</v>
-      </c>
-      <c r="L199" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M199" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -10161,11 +10760,11 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -10183,13 +10782,16 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
-      </c>
-      <c r="L200" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M200" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -10211,11 +10813,11 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -10233,13 +10835,16 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K201" t="n">
-        <v>0</v>
-      </c>
-      <c r="L201" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M201" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -10261,11 +10866,11 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -10283,13 +10888,16 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
-      </c>
-      <c r="L202" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -10311,11 +10919,11 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -10323,7 +10931,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -10333,14 +10941,17 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K203" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L203" t="n">
-        <v>1250</v>
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>946</v>
       </c>
     </row>
     <row r="204">
@@ -10388,6 +10999,9 @@
         <v>0</v>
       </c>
       <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
         <v>1776</v>
       </c>
     </row>
@@ -10433,9 +11047,12 @@
         </is>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
-      </c>
-      <c r="L205" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -10483,9 +11100,12 @@
         </is>
       </c>
       <c r="K206" t="n">
-        <v>0</v>
-      </c>
-      <c r="L206" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -10533,9 +11153,12 @@
         </is>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
-      </c>
-      <c r="L207" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M207" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -10583,9 +11206,12 @@
         </is>
       </c>
       <c r="K208" t="n">
-        <v>0</v>
-      </c>
-      <c r="L208" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M208" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -10633,9 +11259,12 @@
         </is>
       </c>
       <c r="K209" t="n">
-        <v>0</v>
-      </c>
-      <c r="L209" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -10683,9 +11312,12 @@
         </is>
       </c>
       <c r="K210" t="n">
-        <v>0</v>
-      </c>
-      <c r="L210" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -10733,9 +11365,12 @@
         </is>
       </c>
       <c r="K211" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M211" t="n">
         <v>1250</v>
       </c>
     </row>
@@ -10750,16 +11385,16 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -10767,7 +11402,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -10777,14 +11412,17 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K212" t="n">
         <v>0</v>
       </c>
       <c r="L212" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1309</v>
       </c>
     </row>
     <row r="213">
@@ -10798,16 +11436,16 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -10815,7 +11453,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -10825,14 +11463,17 @@
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K213" t="n">
         <v>0</v>
       </c>
       <c r="L213" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M213" t="n">
+        <v>1309</v>
       </c>
     </row>
     <row r="214">
@@ -10846,16 +11487,16 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -10863,7 +11504,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -10873,14 +11514,17 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K214" t="n">
         <v>0</v>
       </c>
       <c r="L214" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>1309</v>
       </c>
     </row>
     <row r="215">
@@ -10894,16 +11538,16 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -10911,7 +11555,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -10921,14 +11565,17 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K215" t="n">
         <v>0</v>
       </c>
       <c r="L215" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1309</v>
       </c>
     </row>
     <row r="216">
@@ -10942,16 +11589,16 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -10959,7 +11606,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -10969,14 +11616,17 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K216" t="n">
         <v>0</v>
       </c>
       <c r="L216" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1309</v>
       </c>
     </row>
     <row r="217">
@@ -10990,16 +11640,16 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -11007,7 +11657,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -11017,14 +11667,17 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K217" t="n">
         <v>0</v>
       </c>
       <c r="L217" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>1309</v>
       </c>
     </row>
     <row r="218">
@@ -11033,7 +11686,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -11047,15 +11700,15 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G218" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -11072,6 +11725,9 @@
         <v>0</v>
       </c>
       <c r="L218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M218" t="n">
         <v>985</v>
       </c>
     </row>
@@ -11086,16 +11742,16 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -11103,7 +11759,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -11113,14 +11769,17 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K219" t="n">
         <v>0</v>
       </c>
       <c r="L219" t="n">
-        <v>1309</v>
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="220">
@@ -11134,16 +11793,16 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -11151,7 +11810,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -11161,14 +11820,17 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K220" t="n">
         <v>0</v>
       </c>
       <c r="L220" t="n">
-        <v>1309</v>
+        <v>0</v>
+      </c>
+      <c r="M220" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="221">
@@ -11182,16 +11844,16 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -11199,7 +11861,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -11209,14 +11871,17 @@
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K221" t="n">
         <v>0</v>
       </c>
       <c r="L221" t="n">
-        <v>1309</v>
+        <v>0</v>
+      </c>
+      <c r="M221" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="222">
@@ -11230,16 +11895,16 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -11247,7 +11912,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -11257,14 +11922,17 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K222" t="n">
         <v>0</v>
       </c>
       <c r="L222" t="n">
-        <v>1309</v>
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="223">
@@ -11278,24 +11946,24 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -11305,14 +11973,17 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K223" t="n">
         <v>0</v>
       </c>
       <c r="L223" t="n">
-        <v>1309</v>
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="224">
@@ -11321,7 +11992,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11335,15 +12006,15 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -11360,6 +12031,9 @@
         <v>0</v>
       </c>
       <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
         <v>1309</v>
       </c>
     </row>
@@ -11383,7 +12057,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
@@ -11391,7 +12065,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -11408,6 +12082,9 @@
         <v>0</v>
       </c>
       <c r="L225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M225" t="n">
         <v>1309</v>
       </c>
     </row>
@@ -11431,7 +12108,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -11439,7 +12116,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -11456,6 +12133,9 @@
         <v>0</v>
       </c>
       <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
         <v>1309</v>
       </c>
     </row>
@@ -11504,6 +12184,9 @@
         <v>0</v>
       </c>
       <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
         <v>1309</v>
       </c>
     </row>
@@ -11552,6 +12235,9 @@
         <v>0</v>
       </c>
       <c r="L228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M228" t="n">
         <v>1309</v>
       </c>
     </row>
@@ -11600,6 +12286,9 @@
         <v>0</v>
       </c>
       <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
         <v>1309</v>
       </c>
     </row>
@@ -11623,7 +12312,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -11631,7 +12320,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -11648,6 +12337,9 @@
         <v>0</v>
       </c>
       <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
         <v>1309</v>
       </c>
     </row>
@@ -11671,15 +12363,15 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G231" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -11696,6 +12388,9 @@
         <v>0</v>
       </c>
       <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
         <v>1309</v>
       </c>
     </row>
@@ -11710,16 +12405,16 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
@@ -11727,7 +12422,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -11737,14 +12432,17 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K232" t="n">
         <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>1309</v>
+        <v>0</v>
+      </c>
+      <c r="M232" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="233">
@@ -11792,6 +12490,9 @@
         <v>0</v>
       </c>
       <c r="L233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M233" t="n">
         <v>1776</v>
       </c>
     </row>
@@ -11811,11 +12512,11 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -11833,13 +12534,16 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
-      </c>
-      <c r="L234" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -11861,11 +12565,11 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -11883,13 +12587,16 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
-      </c>
-      <c r="L235" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -11911,11 +12618,11 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -11933,13 +12640,16 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K236" t="n">
-        <v>0</v>
-      </c>
-      <c r="L236" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -11961,11 +12671,11 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -11983,13 +12693,16 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K237" t="n">
-        <v>0</v>
-      </c>
-      <c r="L237" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -12011,11 +12724,11 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -12033,13 +12746,16 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K238" t="n">
-        <v>0</v>
-      </c>
-      <c r="L238" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -12061,11 +12777,11 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -12073,7 +12789,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -12083,14 +12799,17 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K239" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L239" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>1309</v>
       </c>
     </row>
     <row r="240">
@@ -12109,11 +12828,11 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -12131,13 +12850,16 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K240" t="n">
-        <v>0</v>
-      </c>
-      <c r="L240" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -12159,11 +12881,11 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -12181,13 +12903,16 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K241" t="n">
-        <v>0</v>
-      </c>
-      <c r="L241" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -12209,11 +12934,11 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -12231,13 +12956,16 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K242" t="n">
-        <v>0</v>
-      </c>
-      <c r="L242" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -12259,11 +12987,11 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -12281,13 +13009,16 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K243" t="n">
-        <v>0</v>
-      </c>
-      <c r="L243" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -12309,11 +13040,11 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -12331,13 +13062,16 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
-      </c>
-      <c r="L244" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M244" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -12359,11 +13093,11 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -12371,7 +13105,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -12381,14 +13115,17 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K245" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L245" t="n">
-        <v>1309</v>
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="246">
@@ -12436,6 +13173,9 @@
         <v>0</v>
       </c>
       <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
         <v>1776</v>
       </c>
     </row>
@@ -12481,9 +13221,12 @@
         </is>
       </c>
       <c r="K247" t="n">
-        <v>0</v>
-      </c>
-      <c r="L247" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -12531,9 +13274,12 @@
         </is>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
-      </c>
-      <c r="L248" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M248" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -12581,9 +13327,12 @@
         </is>
       </c>
       <c r="K249" t="n">
-        <v>0</v>
-      </c>
-      <c r="L249" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -12631,9 +13380,12 @@
         </is>
       </c>
       <c r="K250" t="n">
-        <v>0</v>
-      </c>
-      <c r="L250" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M250" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -12681,9 +13433,12 @@
         </is>
       </c>
       <c r="K251" t="n">
-        <v>0</v>
-      </c>
-      <c r="L251" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M251" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -12731,9 +13486,12 @@
         </is>
       </c>
       <c r="K252" t="n">
-        <v>0</v>
-      </c>
-      <c r="L252" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M252" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -12781,9 +13539,12 @@
         </is>
       </c>
       <c r="K253" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
         <v>1309</v>
       </c>
     </row>
@@ -12798,16 +13559,16 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E254" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -12815,7 +13576,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -12825,14 +13586,17 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K254" t="n">
         <v>0</v>
       </c>
       <c r="L254" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M254" t="n">
+        <v>1347</v>
       </c>
     </row>
     <row r="255">
@@ -12846,16 +13610,16 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E255" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -12863,7 +13627,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -12873,14 +13637,17 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K255" t="n">
         <v>0</v>
       </c>
       <c r="L255" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M255" t="n">
+        <v>1347</v>
       </c>
     </row>
     <row r="256">
@@ -12894,16 +13661,16 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E256" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -12911,7 +13678,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -12921,14 +13688,17 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K256" t="n">
         <v>0</v>
       </c>
       <c r="L256" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>1347</v>
       </c>
     </row>
     <row r="257">
@@ -12942,16 +13712,16 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E257" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -12959,7 +13729,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -12969,14 +13739,17 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K257" t="n">
         <v>0</v>
       </c>
       <c r="L257" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>1347</v>
       </c>
     </row>
     <row r="258">
@@ -12990,16 +13763,16 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E258" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -13007,7 +13780,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -13017,14 +13790,17 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K258" t="n">
         <v>0</v>
       </c>
       <c r="L258" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M258" t="n">
+        <v>1347</v>
       </c>
     </row>
     <row r="259">
@@ -13038,16 +13814,16 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E259" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -13055,7 +13831,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -13065,14 +13841,17 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K259" t="n">
         <v>0</v>
       </c>
       <c r="L259" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M259" t="n">
+        <v>1347</v>
       </c>
     </row>
     <row r="260">
@@ -13081,7 +13860,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -13095,15 +13874,15 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G260" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -13120,6 +13899,9 @@
         <v>0</v>
       </c>
       <c r="L260" t="n">
+        <v>0</v>
+      </c>
+      <c r="M260" t="n">
         <v>985</v>
       </c>
     </row>
@@ -13134,16 +13916,16 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -13151,7 +13933,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -13161,14 +13943,17 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K261" t="n">
         <v>0</v>
       </c>
       <c r="L261" t="n">
-        <v>1347</v>
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="262">
@@ -13182,16 +13967,16 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E262" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -13199,7 +13984,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -13209,14 +13994,17 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K262" t="n">
         <v>0</v>
       </c>
       <c r="L262" t="n">
-        <v>1347</v>
+        <v>0</v>
+      </c>
+      <c r="M262" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="263">
@@ -13230,16 +14018,16 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E263" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
@@ -13247,7 +14035,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -13257,14 +14045,17 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K263" t="n">
         <v>0</v>
       </c>
       <c r="L263" t="n">
-        <v>1347</v>
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="264">
@@ -13278,16 +14069,16 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E264" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -13295,7 +14086,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -13305,14 +14096,17 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K264" t="n">
         <v>0</v>
       </c>
       <c r="L264" t="n">
-        <v>1347</v>
+        <v>0</v>
+      </c>
+      <c r="M264" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="265">
@@ -13326,24 +14120,24 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E265" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -13353,14 +14147,17 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K265" t="n">
         <v>0</v>
       </c>
       <c r="L265" t="n">
-        <v>1347</v>
+        <v>0</v>
+      </c>
+      <c r="M265" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="266">
@@ -13369,7 +14166,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -13383,15 +14180,15 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G266" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -13408,6 +14205,9 @@
         <v>0</v>
       </c>
       <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
         <v>1347</v>
       </c>
     </row>
@@ -13431,7 +14231,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -13439,7 +14239,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -13456,6 +14256,9 @@
         <v>0</v>
       </c>
       <c r="L267" t="n">
+        <v>0</v>
+      </c>
+      <c r="M267" t="n">
         <v>1347</v>
       </c>
     </row>
@@ -13479,7 +14282,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -13487,7 +14290,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -13504,6 +14307,9 @@
         <v>0</v>
       </c>
       <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
         <v>1347</v>
       </c>
     </row>
@@ -13552,6 +14358,9 @@
         <v>0</v>
       </c>
       <c r="L269" t="n">
+        <v>0</v>
+      </c>
+      <c r="M269" t="n">
         <v>1347</v>
       </c>
     </row>
@@ -13600,6 +14409,9 @@
         <v>0</v>
       </c>
       <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
         <v>1347</v>
       </c>
     </row>
@@ -13623,7 +14435,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -13631,7 +14443,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -13648,6 +14460,9 @@
         <v>0</v>
       </c>
       <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
         <v>1347</v>
       </c>
     </row>
@@ -13696,6 +14511,9 @@
         <v>0</v>
       </c>
       <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
         <v>1347</v>
       </c>
     </row>
@@ -13719,15 +14537,15 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G273" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -13744,6 +14562,9 @@
         <v>0</v>
       </c>
       <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
         <v>1347</v>
       </c>
     </row>
@@ -13758,16 +14579,16 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E274" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -13775,7 +14596,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -13785,14 +14606,17 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K274" t="n">
         <v>0</v>
       </c>
       <c r="L274" t="n">
-        <v>1347</v>
+        <v>0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="275">
@@ -13840,6 +14664,9 @@
         <v>0</v>
       </c>
       <c r="L275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M275" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -13859,11 +14686,11 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -13881,13 +14708,16 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K276" t="n">
-        <v>0</v>
-      </c>
-      <c r="L276" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -13909,11 +14739,11 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -13931,13 +14761,16 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K277" t="n">
-        <v>0</v>
-      </c>
-      <c r="L277" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -13959,11 +14792,11 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -13981,13 +14814,16 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K278" t="n">
-        <v>0</v>
-      </c>
-      <c r="L278" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0</v>
+      </c>
+      <c r="M278" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -14009,11 +14845,11 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -14031,13 +14867,16 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K279" t="n">
-        <v>0</v>
-      </c>
-      <c r="L279" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -14059,11 +14898,11 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -14081,13 +14920,16 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K280" t="n">
-        <v>0</v>
-      </c>
-      <c r="L280" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0</v>
+      </c>
+      <c r="M280" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -14109,11 +14951,11 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -14121,7 +14963,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -14131,14 +14973,17 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K281" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L281" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M281" t="n">
+        <v>1347</v>
       </c>
     </row>
     <row r="282">
@@ -14157,11 +15002,11 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -14179,13 +15024,16 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K282" t="n">
-        <v>0</v>
-      </c>
-      <c r="L282" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0</v>
+      </c>
+      <c r="M282" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -14207,11 +15055,11 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -14229,13 +15077,16 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K283" t="n">
-        <v>0</v>
-      </c>
-      <c r="L283" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -14257,11 +15108,11 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -14279,13 +15130,16 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K284" t="n">
-        <v>0</v>
-      </c>
-      <c r="L284" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0</v>
+      </c>
+      <c r="M284" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -14307,11 +15161,11 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -14329,13 +15183,16 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K285" t="n">
-        <v>0</v>
-      </c>
-      <c r="L285" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0</v>
+      </c>
+      <c r="M285" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -14357,11 +15214,11 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -14379,13 +15236,16 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K286" t="n">
-        <v>0</v>
-      </c>
-      <c r="L286" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0</v>
+      </c>
+      <c r="M286" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -14407,11 +15267,11 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -14419,7 +15279,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -14429,14 +15289,17 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K287" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L287" t="n">
-        <v>1347</v>
+        <v>0</v>
+      </c>
+      <c r="M287" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="288">
@@ -14484,6 +15347,9 @@
         <v>0</v>
       </c>
       <c r="L288" t="n">
+        <v>0</v>
+      </c>
+      <c r="M288" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -14529,9 +15395,12 @@
         </is>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
-      </c>
-      <c r="L289" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0</v>
+      </c>
+      <c r="M289" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -14579,9 +15448,12 @@
         </is>
       </c>
       <c r="K290" t="n">
-        <v>0</v>
-      </c>
-      <c r="L290" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L290" t="n">
+        <v>0</v>
+      </c>
+      <c r="M290" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -14629,9 +15501,12 @@
         </is>
       </c>
       <c r="K291" t="n">
-        <v>0</v>
-      </c>
-      <c r="L291" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -14679,9 +15554,12 @@
         </is>
       </c>
       <c r="K292" t="n">
-        <v>0</v>
-      </c>
-      <c r="L292" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -14729,9 +15607,12 @@
         </is>
       </c>
       <c r="K293" t="n">
-        <v>0</v>
-      </c>
-      <c r="L293" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0</v>
+      </c>
+      <c r="M293" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -14779,9 +15660,12 @@
         </is>
       </c>
       <c r="K294" t="n">
-        <v>0</v>
-      </c>
-      <c r="L294" t="inlineStr">
+        <v>7</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0</v>
+      </c>
+      <c r="M294" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -14829,9 +15713,12 @@
         </is>
       </c>
       <c r="K295" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M295" t="n">
         <v>1347</v>
       </c>
     </row>

--- a/e2e_test_output_basic_1week_integration/simulation_output/summary/full_deployment_plan_report.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/summary/full_deployment_plan_report.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -575,7 +575,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -612,7 +612,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -728,7 +728,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -765,7 +765,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -779,15 +779,15 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -816,17 +816,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -848,7 +848,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="9">
@@ -867,29 +867,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="10">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1042,7 +1042,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1085,15 +1085,15 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1122,21 +1122,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="15">
@@ -1173,29 +1173,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="16">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1399,7 +1399,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1450,7 +1450,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1501,7 +1501,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1642,11 +1642,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -1695,11 +1695,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1748,11 +1748,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1801,11 +1801,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1854,11 +1854,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -1907,11 +1907,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K29" t="n">
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1498</v>
+        <v>985</v>
       </c>
     </row>
     <row r="30">
@@ -1958,11 +1958,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -2011,11 +2011,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -2064,11 +2064,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -2117,11 +2117,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2170,11 +2170,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2223,11 +2223,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>985</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="36">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2698,7 +2698,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2749,7 +2749,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2953,15 +2953,15 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2990,17 +2990,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -3022,7 +3022,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K50" t="n">
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="51">
@@ -3041,29 +3041,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K51" t="n">
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="52">
@@ -3106,7 +3106,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3259,15 +3259,15 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3296,21 +3296,21 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K56" t="n">
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="57">
@@ -3347,29 +3347,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3379,7 +3379,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="58">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3449,7 +3449,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3463,7 +3463,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3565,7 +3565,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3573,7 +3573,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3624,7 +3624,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3653,7 +3653,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3675,7 +3675,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3816,11 +3816,11 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K66" t="n">
@@ -3869,11 +3869,11 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K67" t="n">
@@ -3922,11 +3922,11 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K68" t="n">
@@ -3975,11 +3975,11 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K69" t="n">
@@ -4028,11 +4028,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K70" t="n">
@@ -4081,11 +4081,11 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -4093,7 +4093,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K71" t="n">
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="72">
@@ -4132,11 +4132,11 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K72" t="n">
@@ -4185,11 +4185,11 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K73" t="n">
@@ -4238,11 +4238,11 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K74" t="n">
@@ -4291,11 +4291,11 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K75" t="n">
@@ -4344,11 +4344,11 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K76" t="n">
@@ -4397,11 +4397,11 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -4409,7 +4409,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K77" t="n">
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="78">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -4880,10 +4880,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I86" s="2" t="n">
         <v>45294</v>
@@ -4897,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M86" t="n">
         <v>1389</v>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4923,7 +4923,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -4931,10 +4931,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H87" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I87" s="2" t="n">
         <v>45294</v>
@@ -4948,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M87" t="n">
         <v>1389</v>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4974,7 +4974,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H88" t="n">
         <v>6</v>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5025,7 +5025,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -5033,10 +5033,10 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I89" s="2" t="n">
         <v>45294</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M89" t="n">
         <v>1389</v>
@@ -5062,7 +5062,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5076,7 +5076,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -5084,10 +5084,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H90" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I90" s="2" t="n">
         <v>45294</v>
@@ -5101,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M90" t="n">
         <v>1389</v>
@@ -5113,7 +5113,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5127,18 +5127,18 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H91" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I91" s="2" t="n">
         <v>45294</v>
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M91" t="n">
         <v>1389</v>
@@ -5164,17 +5164,17 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -5189,24 +5189,24 @@
         <v>36</v>
       </c>
       <c r="H92" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I92" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K92" t="n">
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M92" t="n">
-        <v>945</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="93">
@@ -5215,49 +5215,49 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H93" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I93" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K93" t="n">
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M93" t="n">
-        <v>945</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="94">
@@ -5280,7 +5280,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -5288,10 +5288,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I94" s="2" t="n">
         <v>45294</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M94" t="n">
         <v>945</v>
@@ -5331,7 +5331,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -5339,10 +5339,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H95" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I95" s="2" t="n">
         <v>45294</v>
@@ -5356,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M95" t="n">
         <v>945</v>
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -5390,10 +5390,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H96" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I96" s="2" t="n">
         <v>45294</v>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M96" t="n">
         <v>945</v>
@@ -5433,18 +5433,18 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H97" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I97" s="2" t="n">
         <v>45294</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="L97" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M97" t="n">
         <v>945</v>
@@ -5470,21 +5470,21 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -5492,27 +5492,27 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H98" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I98" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K98" t="n">
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M98" t="n">
-        <v>1389</v>
+        <v>945</v>
       </c>
     </row>
     <row r="99">
@@ -5521,49 +5521,49 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H99" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I99" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K99" t="n">
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M99" t="n">
-        <v>1389</v>
+        <v>945</v>
       </c>
     </row>
     <row r="100">
@@ -5572,7 +5572,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5594,10 +5594,10 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H100" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I100" s="2" t="n">
         <v>45294</v>
@@ -5611,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M100" t="n">
         <v>1389</v>
@@ -5623,7 +5623,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5637,7 +5637,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -5645,10 +5645,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H101" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I101" s="2" t="n">
         <v>45294</v>
@@ -5662,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M101" t="n">
         <v>1389</v>
@@ -5674,7 +5674,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -5696,10 +5696,10 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H102" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I102" s="2" t="n">
         <v>45294</v>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M102" t="n">
         <v>1389</v>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5739,7 +5739,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H103" t="n">
         <v>7</v>
@@ -5776,7 +5776,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5790,7 +5790,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5798,10 +5798,10 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H104" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I104" s="2" t="n">
         <v>45294</v>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M104" t="n">
         <v>1389</v>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5841,7 +5841,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -5849,10 +5849,10 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H105" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I105" s="2" t="n">
         <v>45294</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="M105" t="n">
         <v>1389</v>
@@ -5990,11 +5990,11 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K108" t="n">
@@ -6043,11 +6043,11 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K109" t="n">
@@ -6096,11 +6096,11 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K110" t="n">
@@ -6149,11 +6149,11 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -6171,7 +6171,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K111" t="n">
@@ -6202,11 +6202,11 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K112" t="n">
@@ -6255,11 +6255,11 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K113" t="n">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>1389</v>
+        <v>945</v>
       </c>
     </row>
     <row r="114">
@@ -6306,11 +6306,11 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K114" t="n">
@@ -6359,11 +6359,11 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -6381,7 +6381,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K115" t="n">
@@ -6412,11 +6412,11 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K116" t="n">
@@ -6465,11 +6465,11 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K117" t="n">
@@ -6518,11 +6518,11 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K118" t="n">
@@ -6571,11 +6571,11 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K119" t="n">
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>945</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="120">
@@ -7032,7 +7032,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H128" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I128" s="2" t="n">
         <v>45295</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M128" t="n">
         <v>1278</v>
@@ -7083,7 +7083,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -7097,7 +7097,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -7105,10 +7105,10 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="H129" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I129" s="2" t="n">
         <v>45295</v>
@@ -7122,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="L129" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M129" t="n">
         <v>1278</v>
@@ -7134,7 +7134,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -7156,10 +7156,10 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I130" s="2" t="n">
         <v>45295</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M130" t="n">
         <v>1278</v>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -7199,7 +7199,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -7207,10 +7207,10 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H131" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I131" s="2" t="n">
         <v>45295</v>
@@ -7224,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M131" t="n">
         <v>1278</v>
@@ -7236,7 +7236,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -7250,7 +7250,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -7258,10 +7258,10 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H132" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I132" s="2" t="n">
         <v>45295</v>
@@ -7275,7 +7275,7 @@
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M132" t="n">
         <v>1278</v>
@@ -7287,7 +7287,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -7301,18 +7301,18 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H133" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I133" s="2" t="n">
         <v>45295</v>
@@ -7326,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="L133" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M133" t="n">
         <v>1278</v>
@@ -7338,17 +7338,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -7363,24 +7363,24 @@
         <v>36</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I134" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K134" t="n">
         <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="M134" t="n">
-        <v>928</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="135">
@@ -7389,49 +7389,49 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I135" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K135" t="n">
         <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="M135" t="n">
-        <v>928</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="136">
@@ -7454,7 +7454,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H136" t="n">
         <v>2</v>
@@ -7505,7 +7505,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -7513,10 +7513,10 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I137" s="2" t="n">
         <v>45295</v>
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M137" t="n">
         <v>928</v>
@@ -7556,7 +7556,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -7564,10 +7564,10 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I138" s="2" t="n">
         <v>45295</v>
@@ -7581,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="L138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M138" t="n">
         <v>928</v>
@@ -7607,18 +7607,18 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I139" s="2" t="n">
         <v>45295</v>
@@ -7632,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M139" t="n">
         <v>928</v>
@@ -7644,21 +7644,21 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -7666,27 +7666,27 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H140" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I140" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K140" t="n">
         <v>0</v>
       </c>
       <c r="L140" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M140" t="n">
-        <v>1278</v>
+        <v>928</v>
       </c>
     </row>
     <row r="141">
@@ -7695,49 +7695,49 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H141" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I141" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K141" t="n">
         <v>0</v>
       </c>
       <c r="L141" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M141" t="n">
-        <v>1278</v>
+        <v>928</v>
       </c>
     </row>
     <row r="142">
@@ -7746,7 +7746,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7760,7 +7760,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -7768,10 +7768,10 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H142" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I142" s="2" t="n">
         <v>45295</v>
@@ -7785,7 +7785,7 @@
         <v>0</v>
       </c>
       <c r="L142" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="M142" t="n">
         <v>1278</v>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7811,7 +7811,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -7819,10 +7819,10 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H143" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I143" s="2" t="n">
         <v>45295</v>
@@ -7836,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M143" t="n">
         <v>1278</v>
@@ -7848,7 +7848,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7862,7 +7862,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -7870,10 +7870,10 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H144" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I144" s="2" t="n">
         <v>45295</v>
@@ -7887,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M144" t="n">
         <v>1278</v>
@@ -7899,7 +7899,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7913,7 +7913,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -7921,10 +7921,10 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H145" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I145" s="2" t="n">
         <v>45295</v>
@@ -7938,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M145" t="n">
         <v>1278</v>
@@ -7950,7 +7950,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7964,7 +7964,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -7972,10 +7972,10 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H146" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I146" s="2" t="n">
         <v>45295</v>
@@ -7989,7 +7989,7 @@
         <v>0</v>
       </c>
       <c r="L146" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M146" t="n">
         <v>1278</v>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -8015,7 +8015,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -8023,10 +8023,10 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H147" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="I147" s="2" t="n">
         <v>45295</v>
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="L147" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="M147" t="n">
         <v>1278</v>
@@ -8164,11 +8164,11 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K150" t="n">
@@ -8217,11 +8217,11 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K151" t="n">
@@ -8270,11 +8270,11 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K152" t="n">
@@ -8323,11 +8323,11 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K153" t="n">
@@ -8376,11 +8376,11 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -8398,7 +8398,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K154" t="n">
@@ -8429,11 +8429,11 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K155" t="n">
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="M155" t="n">
-        <v>1278</v>
+        <v>928</v>
       </c>
     </row>
     <row r="156">
@@ -8480,11 +8480,11 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K156" t="n">
@@ -8533,11 +8533,11 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -8555,7 +8555,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K157" t="n">
@@ -8586,11 +8586,11 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E158" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
@@ -8608,7 +8608,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K158" t="n">
@@ -8639,11 +8639,11 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K159" t="n">
@@ -8692,11 +8692,11 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -8714,7 +8714,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K160" t="n">
@@ -8745,11 +8745,11 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K161" t="n">
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M161" t="n">
-        <v>928</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="162">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -9220,7 +9220,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -9228,10 +9228,10 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I170" s="2" t="n">
         <v>45296</v>
@@ -9245,7 +9245,7 @@
         <v>0</v>
       </c>
       <c r="L170" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M170" t="n">
         <v>1250</v>
@@ -9257,7 +9257,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -9279,10 +9279,10 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I171" s="2" t="n">
         <v>45296</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="L171" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M171" t="n">
         <v>1250</v>
@@ -9308,7 +9308,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -9330,10 +9330,10 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I172" s="2" t="n">
         <v>45296</v>
@@ -9347,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="L172" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M172" t="n">
         <v>1250</v>
@@ -9359,7 +9359,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -9373,7 +9373,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -9381,10 +9381,10 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I173" s="2" t="n">
         <v>45296</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="L173" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M173" t="n">
         <v>1250</v>
@@ -9410,7 +9410,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -9424,7 +9424,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -9432,10 +9432,10 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I174" s="2" t="n">
         <v>45296</v>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="L174" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M174" t="n">
         <v>1250</v>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -9475,18 +9475,18 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I175" s="2" t="n">
         <v>45296</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="L175" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M175" t="n">
         <v>1250</v>
@@ -9512,21 +9512,21 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E176" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -9534,27 +9534,27 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I176" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K176" t="n">
         <v>0</v>
       </c>
       <c r="L176" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M176" t="n">
-        <v>946</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="177">
@@ -9563,49 +9563,49 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E177" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I177" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K177" t="n">
         <v>0</v>
       </c>
       <c r="L177" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M177" t="n">
-        <v>946</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="178">
@@ -9628,7 +9628,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -9679,7 +9679,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -9730,7 +9730,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -9781,15 +9781,15 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G181" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -9818,21 +9818,21 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -9840,27 +9840,27 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H182" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I182" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K182" t="n">
         <v>0</v>
       </c>
       <c r="L182" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M182" t="n">
-        <v>1250</v>
+        <v>946</v>
       </c>
     </row>
     <row r="183">
@@ -9869,49 +9869,49 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E183" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="H183" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I183" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K183" t="n">
         <v>0</v>
       </c>
       <c r="L183" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M183" t="n">
-        <v>1250</v>
+        <v>946</v>
       </c>
     </row>
     <row r="184">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9934,7 +9934,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -9942,10 +9942,10 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H184" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I184" s="2" t="n">
         <v>45296</v>
@@ -9959,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="L184" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M184" t="n">
         <v>1250</v>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9985,7 +9985,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -9993,10 +9993,10 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H185" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I185" s="2" t="n">
         <v>45296</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="L185" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M185" t="n">
         <v>1250</v>
@@ -10022,7 +10022,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -10036,7 +10036,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -10044,10 +10044,10 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H186" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I186" s="2" t="n">
         <v>45296</v>
@@ -10061,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="L186" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M186" t="n">
         <v>1250</v>
@@ -10073,7 +10073,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -10087,7 +10087,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
@@ -10095,10 +10095,10 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H187" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I187" s="2" t="n">
         <v>45296</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="L187" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M187" t="n">
         <v>1250</v>
@@ -10124,7 +10124,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -10138,7 +10138,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -10146,10 +10146,10 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H188" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I188" s="2" t="n">
         <v>45296</v>
@@ -10163,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="L188" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M188" t="n">
         <v>1250</v>
@@ -10175,7 +10175,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -10189,7 +10189,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -10197,10 +10197,10 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H189" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I189" s="2" t="n">
         <v>45296</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="L189" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M189" t="n">
         <v>1250</v>
@@ -10338,11 +10338,11 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E192" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -10360,7 +10360,7 @@
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K192" t="n">
@@ -10391,11 +10391,11 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K193" t="n">
@@ -10444,11 +10444,11 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E194" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K194" t="n">
@@ -10497,11 +10497,11 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E195" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K195" t="n">
@@ -10550,11 +10550,11 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K196" t="n">
@@ -10603,11 +10603,11 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E197" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -10615,7 +10615,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K197" t="n">
@@ -10635,7 +10635,7 @@
         <v>0</v>
       </c>
       <c r="M197" t="n">
-        <v>1250</v>
+        <v>946</v>
       </c>
     </row>
     <row r="198">
@@ -10654,11 +10654,11 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E198" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -10676,7 +10676,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K198" t="n">
@@ -10707,11 +10707,11 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K199" t="n">
@@ -10760,11 +10760,11 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -10782,7 +10782,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K200" t="n">
@@ -10813,11 +10813,11 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K201" t="n">
@@ -10866,11 +10866,11 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E202" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K202" t="n">
@@ -10919,11 +10919,11 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E203" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K203" t="n">
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="M203" t="n">
-        <v>946</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="204">
@@ -11380,7 +11380,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -11394,7 +11394,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -11445,7 +11445,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -11453,7 +11453,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -11482,7 +11482,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -11504,7 +11504,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -11547,7 +11547,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -11555,7 +11555,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -11584,7 +11584,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -11598,7 +11598,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -11635,7 +11635,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -11649,15 +11649,15 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G217" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -11686,17 +11686,17 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -11718,7 +11718,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K218" t="n">
@@ -11728,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="M218" t="n">
-        <v>985</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="219">
@@ -11737,29 +11737,29 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G219" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -11769,7 +11769,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K219" t="n">
@@ -11779,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="M219" t="n">
-        <v>985</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="220">
@@ -11802,7 +11802,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -11810,7 +11810,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -11904,7 +11904,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
@@ -11912,7 +11912,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -11955,15 +11955,15 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -11992,21 +11992,21 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -12024,7 +12024,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K224" t="n">
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="M224" t="n">
-        <v>1309</v>
+        <v>985</v>
       </c>
     </row>
     <row r="225">
@@ -12043,29 +12043,29 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G225" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -12075,7 +12075,7 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K225" t="n">
@@ -12085,7 +12085,7 @@
         <v>0</v>
       </c>
       <c r="M225" t="n">
-        <v>1309</v>
+        <v>985</v>
       </c>
     </row>
     <row r="226">
@@ -12094,7 +12094,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -12108,7 +12108,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -12145,7 +12145,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -12159,7 +12159,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -12196,7 +12196,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -12210,7 +12210,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
@@ -12218,7 +12218,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -12247,7 +12247,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -12261,7 +12261,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
@@ -12269,7 +12269,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -12298,7 +12298,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -12312,7 +12312,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
@@ -12320,7 +12320,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -12349,7 +12349,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -12363,7 +12363,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -12512,11 +12512,11 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K234" t="n">
@@ -12565,11 +12565,11 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K235" t="n">
@@ -12618,11 +12618,11 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K236" t="n">
@@ -12671,11 +12671,11 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K237" t="n">
@@ -12724,11 +12724,11 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K238" t="n">
@@ -12777,11 +12777,11 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -12789,7 +12789,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -12799,7 +12799,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K239" t="n">
@@ -12809,7 +12809,7 @@
         <v>0</v>
       </c>
       <c r="M239" t="n">
-        <v>1309</v>
+        <v>985</v>
       </c>
     </row>
     <row r="240">
@@ -12828,11 +12828,11 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -12850,7 +12850,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K240" t="n">
@@ -12881,11 +12881,11 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K241" t="n">
@@ -12934,11 +12934,11 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K242" t="n">
@@ -12987,11 +12987,11 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -13009,7 +13009,7 @@
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K243" t="n">
@@ -13040,11 +13040,11 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -13062,7 +13062,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K244" t="n">
@@ -13093,11 +13093,11 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -13115,7 +13115,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K245" t="n">
@@ -13125,7 +13125,7 @@
         <v>0</v>
       </c>
       <c r="M245" t="n">
-        <v>985</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="246">
@@ -13554,7 +13554,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -13568,7 +13568,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -13605,7 +13605,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -13619,7 +13619,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -13656,7 +13656,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -13670,7 +13670,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -13707,7 +13707,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -13758,7 +13758,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -13772,7 +13772,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -13780,7 +13780,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -13809,7 +13809,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -13823,15 +13823,15 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G259" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -13860,21 +13860,21 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E260" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -13892,7 +13892,7 @@
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K260" t="n">
@@ -13902,7 +13902,7 @@
         <v>0</v>
       </c>
       <c r="M260" t="n">
-        <v>985</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="261">
@@ -13911,29 +13911,29 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E261" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G261" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -13943,7 +13943,7 @@
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K261" t="n">
@@ -13953,7 +13953,7 @@
         <v>0</v>
       </c>
       <c r="M261" t="n">
-        <v>985</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="262">
@@ -13976,7 +13976,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -13984,7 +13984,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -14078,7 +14078,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -14086,7 +14086,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -14129,15 +14129,15 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G265" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -14166,21 +14166,21 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E266" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -14198,7 +14198,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K266" t="n">
@@ -14208,7 +14208,7 @@
         <v>0</v>
       </c>
       <c r="M266" t="n">
-        <v>1347</v>
+        <v>985</v>
       </c>
     </row>
     <row r="267">
@@ -14217,29 +14217,29 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E267" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G267" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -14249,7 +14249,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K267" t="n">
@@ -14259,7 +14259,7 @@
         <v>0</v>
       </c>
       <c r="M267" t="n">
-        <v>1347</v>
+        <v>985</v>
       </c>
     </row>
     <row r="268">
@@ -14268,7 +14268,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -14282,7 +14282,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -14319,7 +14319,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -14333,7 +14333,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -14341,7 +14341,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -14370,7 +14370,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -14384,7 +14384,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -14421,7 +14421,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -14435,7 +14435,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -14443,7 +14443,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -14472,7 +14472,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -14486,7 +14486,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -14494,7 +14494,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -14523,7 +14523,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -14537,7 +14537,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -14686,11 +14686,11 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E276" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -14708,7 +14708,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K276" t="n">
@@ -14739,11 +14739,11 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E277" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K277" t="n">
@@ -14792,11 +14792,11 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E278" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -14814,7 +14814,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K278" t="n">
@@ -14845,11 +14845,11 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E279" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -14867,7 +14867,7 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K279" t="n">
@@ -14898,11 +14898,11 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E280" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -14920,7 +14920,7 @@
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K280" t="n">
@@ -14951,11 +14951,11 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E281" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -14963,7 +14963,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -14973,7 +14973,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K281" t="n">
@@ -14983,7 +14983,7 @@
         <v>0</v>
       </c>
       <c r="M281" t="n">
-        <v>1347</v>
+        <v>985</v>
       </c>
     </row>
     <row r="282">
@@ -15002,11 +15002,11 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E282" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K282" t="n">
@@ -15055,11 +15055,11 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E283" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -15077,7 +15077,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K283" t="n">
@@ -15108,11 +15108,11 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E284" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -15130,7 +15130,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K284" t="n">
@@ -15161,11 +15161,11 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E285" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -15183,7 +15183,7 @@
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K285" t="n">
@@ -15214,11 +15214,11 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E286" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -15236,7 +15236,7 @@
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K286" t="n">
@@ -15267,11 +15267,11 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E287" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -15279,7 +15279,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K287" t="n">
@@ -15299,7 +15299,7 @@
         <v>0</v>
       </c>
       <c r="M287" t="n">
-        <v>985</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="288">
